--- a/teaching/traditional_assets/database/data/british_virgin_islands/british_virgin_islands_business_consumer_services.xlsx
+++ b/teaching/traditional_assets/database/data/british_virgin_islands/british_virgin_islands_business_consumer_services.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="cse_hangji" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,22 +593,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.2722852512155591</v>
+        <v>0.2208413001912046</v>
       </c>
       <c r="H2">
-        <v>0.2722852512155591</v>
+        <v>0.2208413001912046</v>
       </c>
       <c r="I2">
-        <v>0.2722852512155591</v>
+        <v>0.2208413001912046</v>
       </c>
       <c r="J2">
-        <v>0.2722852512155591</v>
+        <v>0.2208413001912046</v>
       </c>
       <c r="K2">
-        <v>34.2</v>
+        <v>23.8</v>
       </c>
       <c r="L2">
-        <v>0.2771474878444085</v>
+        <v>0.2275334608030593</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,55 +632,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.526</v>
+        <v>0.398</v>
       </c>
       <c r="V2">
-        <v>0.0007355614599356733</v>
+        <v>0.0003503521126760564</v>
+      </c>
+      <c r="W2">
+        <v>0.2411347517730496</v>
       </c>
       <c r="X2">
-        <v>0.1127038213434662</v>
+        <v>0.08266011429400838</v>
+      </c>
+      <c r="Y2">
+        <v>0.1584746374790413</v>
+      </c>
+      <c r="Z2">
+        <v>1.065455212174303</v>
+      </c>
+      <c r="AA2">
+        <v>0.2352965143520688</v>
       </c>
       <c r="AB2">
-        <v>0.1127038213434662</v>
+        <v>0.0826378793550001</v>
+      </c>
+      <c r="AC2">
+        <v>0.1526586349970687</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AG2">
-        <v>-0.526</v>
+        <v>0.375</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.0006799950385872993</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.00627063509446513</v>
       </c>
       <c r="AJ2">
-        <v>-0.0007361029088659817</v>
+        <v>0.0003299967000329997</v>
       </c>
       <c r="AK2">
-        <v>-0.005357834049748406</v>
+        <v>0.003051881993896236</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="AM2">
-        <v>-0.64</v>
+        <v>-0.737</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.03346320346320346</v>
+      </c>
+      <c r="AO2">
+        <v>624.3243243243244</v>
       </c>
       <c r="AP2">
-        <v>-0.0156547619047619</v>
+        <v>0.01623376623376623</v>
       </c>
       <c r="AQ2">
-        <v>-52.5</v>
+        <v>-31.34328358208955</v>
       </c>
     </row>
     <row r="3">
@@ -698,22 +718,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.2722852512155591</v>
+        <v>0.2208413001912046</v>
       </c>
       <c r="H3">
-        <v>0.2722852512155591</v>
+        <v>0.2208413001912046</v>
       </c>
       <c r="I3">
-        <v>0.2722852512155591</v>
+        <v>0.2208413001912046</v>
       </c>
       <c r="J3">
-        <v>0.2722852512155591</v>
+        <v>0.2208413001912046</v>
       </c>
       <c r="K3">
-        <v>34.2</v>
+        <v>23.8</v>
       </c>
       <c r="L3">
-        <v>0.2771474878444085</v>
+        <v>0.2275334608030593</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -737,55 +757,8791 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.526</v>
+        <v>0.398</v>
       </c>
       <c r="V3">
-        <v>0.0007355614599356733</v>
+        <v>0.0003503521126760564</v>
+      </c>
+      <c r="W3">
+        <v>0.2411347517730496</v>
       </c>
       <c r="X3">
-        <v>0.1127038213434662</v>
+        <v>0.08266011429400838</v>
+      </c>
+      <c r="Y3">
+        <v>0.1584746374790413</v>
+      </c>
+      <c r="Z3">
+        <v>1.065455212174303</v>
+      </c>
+      <c r="AA3">
+        <v>0.2352965143520688</v>
       </c>
       <c r="AB3">
-        <v>0.1127038213434662</v>
+        <v>0.0826378793550001</v>
+      </c>
+      <c r="AC3">
+        <v>0.1526586349970687</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AG3">
-        <v>-0.526</v>
+        <v>0.375</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.0006799950385872993</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.00627063509446513</v>
       </c>
       <c r="AJ3">
-        <v>-0.0007361029088659817</v>
+        <v>0.0003299967000329997</v>
       </c>
       <c r="AK3">
-        <v>-0.005357834049748406</v>
+        <v>0.003051881993896236</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="AM3">
-        <v>-0.64</v>
+        <v>-0.737</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.03346320346320346</v>
+      </c>
+      <c r="AO3">
+        <v>624.3243243243244</v>
       </c>
       <c r="AP3">
-        <v>-0.0156547619047619</v>
+        <v>0.01623376623376623</v>
       </c>
       <c r="AQ3">
-        <v>-52.5</v>
+        <v>-31.34328358208955</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hangji Global Limited (CSE:HANGJI)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CSE:HANGJI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Business &amp; Consumer Services</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>British Virgin Islands</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.000679995038587299</v>
+      </c>
+      <c r="F2">
+        <v>0.09</v>
+      </c>
+      <c r="G2">
+        <v>1136</v>
+      </c>
+      <c r="H2">
+        <v>1046.46122981198</v>
+      </c>
+      <c r="I2">
+        <v>1136.375</v>
+      </c>
+      <c r="J2">
+        <v>1148.37279981198</v>
+      </c>
+      <c r="K2">
+        <v>0.773</v>
+      </c>
+      <c r="L2">
+        <v>102.30957</v>
+      </c>
+      <c r="M2">
+        <v>0.0826378793550001</v>
+      </c>
+      <c r="N2">
+        <v>0.0818716706854109</v>
+      </c>
+      <c r="O2">
+        <v>0.049961436</v>
+      </c>
+      <c r="P2">
+        <v>0.01344924</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.08266011429400839</v>
+      </c>
+      <c r="T2">
+        <v>0.08863872426968231</v>
+      </c>
+      <c r="U2">
+        <v>0.91357552047333</v>
+      </c>
+      <c r="V2">
+        <v>0.988028944827923</v>
+      </c>
+      <c r="W2">
+        <v>13.82755648396031</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>1136</v>
+      </c>
+      <c r="AB2">
+        <v>0.0803</v>
+      </c>
+      <c r="AC2">
+        <v>0.06018000000000001</v>
+      </c>
+      <c r="AD2">
+        <v>0.1698</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>23.1</v>
+      </c>
+      <c r="AH2">
+        <v>0.182</v>
+      </c>
+      <c r="AI2">
+        <v>9.749999999999996</v>
+      </c>
+      <c r="AJ2">
+        <v>0.773</v>
+      </c>
+      <c r="AK2">
+        <v>0.773</v>
+      </c>
+      <c r="AL2">
+        <v>0.037</v>
+      </c>
+      <c r="AM2">
+        <v>0.773</v>
+      </c>
+      <c r="AN2">
+        <v>0.398</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0826186953883354</v>
+      </c>
+      <c r="C2">
+        <v>1137.070334533888</v>
+      </c>
+      <c r="D2">
+        <v>1136.672334533888</v>
+      </c>
+      <c r="E2">
+        <v>-0.773</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.398</v>
+      </c>
+      <c r="H2">
+        <v>1136</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>23.1</v>
+      </c>
+      <c r="K2">
+        <v>0.182</v>
+      </c>
+      <c r="L2">
+        <v>22.918</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>22.918</v>
+      </c>
+      <c r="O2">
+        <v>3.891476400000001</v>
+      </c>
+      <c r="P2">
+        <v>19.0265236</v>
+      </c>
+      <c r="Q2">
+        <v>19.2085236</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.0826186953883354</v>
+      </c>
+      <c r="T2">
+        <v>0.9130597184101544</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.1698</v>
+      </c>
+      <c r="W2">
+        <v>0.01344924</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.08253569264356601</v>
+      </c>
+      <c r="C3">
+        <v>1126.990868770412</v>
+      </c>
+      <c r="D3">
+        <v>1137.960598770412</v>
+      </c>
+      <c r="E3">
+        <v>10.59473</v>
+      </c>
+      <c r="F3">
+        <v>11.36773</v>
+      </c>
+      <c r="G3">
+        <v>0.398</v>
+      </c>
+      <c r="H3">
+        <v>1136</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>23.1</v>
+      </c>
+      <c r="K3">
+        <v>0.182</v>
+      </c>
+      <c r="L3">
+        <v>22.918</v>
+      </c>
+      <c r="M3">
+        <v>0.184157226</v>
+      </c>
+      <c r="N3">
+        <v>22.733842774</v>
+      </c>
+      <c r="O3">
+        <v>3.860206503025201</v>
+      </c>
+      <c r="P3">
+        <v>18.8736362709748</v>
+      </c>
+      <c r="Q3">
+        <v>19.0556362709748</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.08323353559956162</v>
+      </c>
+      <c r="T3">
+        <v>0.9207165080891858</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.1698</v>
+      </c>
+      <c r="W3">
+        <v>0.01344924</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>124.4480083556428</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.08245268989879662</v>
+      </c>
+      <c r="C4">
+        <v>1116.914326466559</v>
+      </c>
+      <c r="D4">
+        <v>1139.251786466559</v>
+      </c>
+      <c r="E4">
+        <v>21.96246</v>
+      </c>
+      <c r="F4">
+        <v>22.73546</v>
+      </c>
+      <c r="G4">
+        <v>0.398</v>
+      </c>
+      <c r="H4">
+        <v>1136</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>23.1</v>
+      </c>
+      <c r="K4">
+        <v>0.182</v>
+      </c>
+      <c r="L4">
+        <v>22.918</v>
+      </c>
+      <c r="M4">
+        <v>0.368314452</v>
+      </c>
+      <c r="N4">
+        <v>22.549685548</v>
+      </c>
+      <c r="O4">
+        <v>3.828936606050401</v>
+      </c>
+      <c r="P4">
+        <v>18.7207489419496</v>
+      </c>
+      <c r="Q4">
+        <v>18.9027489419496</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.08386092357020063</v>
+      </c>
+      <c r="T4">
+        <v>0.9285295587820751</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.1698</v>
+      </c>
+      <c r="W4">
+        <v>0.01344924</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>62.22400417782141</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.08236968715402723</v>
+      </c>
+      <c r="C5">
+        <v>1106.840717584948</v>
+      </c>
+      <c r="D5">
+        <v>1140.545907584949</v>
+      </c>
+      <c r="E5">
+        <v>33.33018999999999</v>
+      </c>
+      <c r="F5">
+        <v>34.10319</v>
+      </c>
+      <c r="G5">
+        <v>0.398</v>
+      </c>
+      <c r="H5">
+        <v>1136</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>23.1</v>
+      </c>
+      <c r="K5">
+        <v>0.182</v>
+      </c>
+      <c r="L5">
+        <v>22.918</v>
+      </c>
+      <c r="M5">
+        <v>0.552471678</v>
+      </c>
+      <c r="N5">
+        <v>22.365528322</v>
+      </c>
+      <c r="O5">
+        <v>3.7976667090756</v>
+      </c>
+      <c r="P5">
+        <v>18.5678616129244</v>
+      </c>
+      <c r="Q5">
+        <v>18.7498616129244</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.0845012473752858</v>
+      </c>
+      <c r="T5">
+        <v>0.9365037033036837</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.1698</v>
+      </c>
+      <c r="W5">
+        <v>0.01344924</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>41.48266945188094</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.08228668440925781</v>
+      </c>
+      <c r="C6">
+        <v>1096.770052133521</v>
+      </c>
+      <c r="D6">
+        <v>1141.842972133521</v>
+      </c>
+      <c r="E6">
+        <v>44.69792</v>
+      </c>
+      <c r="F6">
+        <v>45.47092</v>
+      </c>
+      <c r="G6">
+        <v>0.398</v>
+      </c>
+      <c r="H6">
+        <v>1136</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>23.1</v>
+      </c>
+      <c r="K6">
+        <v>0.182</v>
+      </c>
+      <c r="L6">
+        <v>22.918</v>
+      </c>
+      <c r="M6">
+        <v>0.7366289039999999</v>
+      </c>
+      <c r="N6">
+        <v>22.181371096</v>
+      </c>
+      <c r="O6">
+        <v>3.766396812100801</v>
+      </c>
+      <c r="P6">
+        <v>18.4149742838992</v>
+      </c>
+      <c r="Q6">
+        <v>18.5969742838992</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.08515491125964356</v>
+      </c>
+      <c r="T6">
+        <v>0.9446439758361589</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.1698</v>
+      </c>
+      <c r="W6">
+        <v>0.01344924</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>31.11200208891071</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.08220368166448844</v>
+      </c>
+      <c r="C7">
+        <v>1086.70234016579</v>
+      </c>
+      <c r="D7">
+        <v>1143.14299016579</v>
+      </c>
+      <c r="E7">
+        <v>56.06565</v>
+      </c>
+      <c r="F7">
+        <v>56.83865</v>
+      </c>
+      <c r="G7">
+        <v>0.398</v>
+      </c>
+      <c r="H7">
+        <v>1136</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>23.1</v>
+      </c>
+      <c r="K7">
+        <v>0.182</v>
+      </c>
+      <c r="L7">
+        <v>22.918</v>
+      </c>
+      <c r="M7">
+        <v>0.92078613</v>
+      </c>
+      <c r="N7">
+        <v>21.99721387</v>
+      </c>
+      <c r="O7">
+        <v>3.735126915126</v>
+      </c>
+      <c r="P7">
+        <v>18.262086954874</v>
+      </c>
+      <c r="Q7">
+        <v>18.444086954874</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.0858223364889352</v>
+      </c>
+      <c r="T7">
+        <v>0.9529556225272129</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.1698</v>
+      </c>
+      <c r="W7">
+        <v>0.01344924</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>24.88960167112856</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.08212067891971904</v>
+      </c>
+      <c r="C8">
+        <v>1076.637591781112</v>
+      </c>
+      <c r="D8">
+        <v>1144.445971781113</v>
+      </c>
+      <c r="E8">
+        <v>67.43338</v>
+      </c>
+      <c r="F8">
+        <v>68.20638</v>
+      </c>
+      <c r="G8">
+        <v>0.398</v>
+      </c>
+      <c r="H8">
+        <v>1136</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>23.1</v>
+      </c>
+      <c r="K8">
+        <v>0.182</v>
+      </c>
+      <c r="L8">
+        <v>22.918</v>
+      </c>
+      <c r="M8">
+        <v>1.104943356</v>
+      </c>
+      <c r="N8">
+        <v>21.813056644</v>
+      </c>
+      <c r="O8">
+        <v>3.703857018151201</v>
+      </c>
+      <c r="P8">
+        <v>18.1091996258488</v>
+      </c>
+      <c r="Q8">
+        <v>18.2911996258488</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.08650396225502026</v>
+      </c>
+      <c r="T8">
+        <v>0.9614441127648848</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.1698</v>
+      </c>
+      <c r="W8">
+        <v>0.01344924</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>20.74133472594047</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.08203767617494964</v>
+      </c>
+      <c r="C9">
+        <v>1066.575817124938</v>
+      </c>
+      <c r="D9">
+        <v>1145.751927124938</v>
+      </c>
+      <c r="E9">
+        <v>78.80111000000001</v>
+      </c>
+      <c r="F9">
+        <v>79.57411</v>
+      </c>
+      <c r="G9">
+        <v>0.398</v>
+      </c>
+      <c r="H9">
+        <v>1136</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>23.1</v>
+      </c>
+      <c r="K9">
+        <v>0.182</v>
+      </c>
+      <c r="L9">
+        <v>22.918</v>
+      </c>
+      <c r="M9">
+        <v>1.289100582</v>
+      </c>
+      <c r="N9">
+        <v>21.628899418</v>
+      </c>
+      <c r="O9">
+        <v>3.672587121176401</v>
+      </c>
+      <c r="P9">
+        <v>17.9563122968236</v>
+      </c>
+      <c r="Q9">
+        <v>18.1383122968236</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.08720024663973081</v>
+      </c>
+      <c r="T9">
+        <v>0.9701151511797111</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.1698</v>
+      </c>
+      <c r="W9">
+        <v>0.01344924</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>17.77828690794897</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.08195467343018026</v>
+      </c>
+      <c r="C10">
+        <v>1056.51702638908</v>
+      </c>
+      <c r="D10">
+        <v>1147.06086638908</v>
+      </c>
+      <c r="E10">
+        <v>90.16884</v>
+      </c>
+      <c r="F10">
+        <v>90.94184</v>
+      </c>
+      <c r="G10">
+        <v>0.398</v>
+      </c>
+      <c r="H10">
+        <v>1136</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>23.1</v>
+      </c>
+      <c r="K10">
+        <v>0.182</v>
+      </c>
+      <c r="L10">
+        <v>22.918</v>
+      </c>
+      <c r="M10">
+        <v>1.473257808</v>
+      </c>
+      <c r="N10">
+        <v>21.444742192</v>
+      </c>
+      <c r="O10">
+        <v>3.641317224201601</v>
+      </c>
+      <c r="P10">
+        <v>17.8034249677984</v>
+      </c>
+      <c r="Q10">
+        <v>17.9854249677984</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.08791166764150028</v>
+      </c>
+      <c r="T10">
+        <v>0.9789746904296424</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.1698</v>
+      </c>
+      <c r="W10">
+        <v>0.01344924</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>15.55600104445535</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.08187167068541086</v>
+      </c>
+      <c r="C11">
+        <v>1046.46122981198</v>
+      </c>
+      <c r="D11">
+        <v>1148.37279981198</v>
+      </c>
+      <c r="E11">
+        <v>101.53657</v>
+      </c>
+      <c r="F11">
+        <v>102.30957</v>
+      </c>
+      <c r="G11">
+        <v>0.398</v>
+      </c>
+      <c r="H11">
+        <v>1136</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>23.1</v>
+      </c>
+      <c r="K11">
+        <v>0.182</v>
+      </c>
+      <c r="L11">
+        <v>22.918</v>
+      </c>
+      <c r="M11">
+        <v>1.657415034</v>
+      </c>
+      <c r="N11">
+        <v>21.260584966</v>
+      </c>
+      <c r="O11">
+        <v>3.610047327226801</v>
+      </c>
+      <c r="P11">
+        <v>17.6505376387732</v>
+      </c>
+      <c r="Q11">
+        <v>17.8325376387732</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.08863872426968225</v>
+      </c>
+      <c r="T11">
+        <v>0.9880289448279235</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.1698</v>
+      </c>
+      <c r="W11">
+        <v>0.01344924</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>13.82755648396031</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.08192149994064146</v>
+      </c>
+      <c r="C12">
+        <v>1034.305543609085</v>
+      </c>
+      <c r="D12">
+        <v>1147.584843609085</v>
+      </c>
+      <c r="E12">
+        <v>112.9043</v>
+      </c>
+      <c r="F12">
+        <v>113.6773</v>
+      </c>
+      <c r="G12">
+        <v>0.398</v>
+      </c>
+      <c r="H12">
+        <v>1136</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>23.1</v>
+      </c>
+      <c r="K12">
+        <v>0.182</v>
+      </c>
+      <c r="L12">
+        <v>22.918</v>
+      </c>
+      <c r="M12">
+        <v>2.02345594</v>
+      </c>
+      <c r="N12">
+        <v>20.89454406</v>
+      </c>
+      <c r="O12">
+        <v>3.547893581388</v>
+      </c>
+      <c r="P12">
+        <v>17.346650478612</v>
+      </c>
+      <c r="Q12">
+        <v>17.528650478612</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.08938193771182384</v>
+      </c>
+      <c r="T12">
+        <v>0.9972844048794999</v>
+      </c>
+      <c r="U12">
+        <v>0.0178</v>
+      </c>
+      <c r="V12">
+        <v>0.1698</v>
+      </c>
+      <c r="W12">
+        <v>0.01477756</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>11.32616705259221</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.08205268879587206</v>
+      </c>
+      <c r="C13">
+        <v>1020.868469583389</v>
+      </c>
+      <c r="D13">
+        <v>1145.515499583389</v>
+      </c>
+      <c r="E13">
+        <v>124.27203</v>
+      </c>
+      <c r="F13">
+        <v>125.04503</v>
+      </c>
+      <c r="G13">
+        <v>0.398</v>
+      </c>
+      <c r="H13">
+        <v>1136</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>23.1</v>
+      </c>
+      <c r="K13">
+        <v>0.182</v>
+      </c>
+      <c r="L13">
+        <v>22.918</v>
+      </c>
+      <c r="M13">
+        <v>2.5009006</v>
+      </c>
+      <c r="N13">
+        <v>20.41709940000001</v>
+      </c>
+      <c r="O13">
+        <v>3.466823478120001</v>
+      </c>
+      <c r="P13">
+        <v>16.95027592188</v>
+      </c>
+      <c r="Q13">
+        <v>17.13227592188</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.09014185257963153</v>
+      </c>
+      <c r="T13">
+        <v>1.006747852797404</v>
+      </c>
+      <c r="U13">
+        <v>0.02</v>
+      </c>
+      <c r="V13">
+        <v>0.1698</v>
+      </c>
+      <c r="W13">
+        <v>0.016604</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>9.163898797097337</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.08200123365110268</v>
+      </c>
+      <c r="C14">
+        <v>1010.311491518487</v>
+      </c>
+      <c r="D14">
+        <v>1146.326251518487</v>
+      </c>
+      <c r="E14">
+        <v>135.63976</v>
+      </c>
+      <c r="F14">
+        <v>136.41276</v>
+      </c>
+      <c r="G14">
+        <v>0.398</v>
+      </c>
+      <c r="H14">
+        <v>1136</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>23.1</v>
+      </c>
+      <c r="K14">
+        <v>0.182</v>
+      </c>
+      <c r="L14">
+        <v>22.918</v>
+      </c>
+      <c r="M14">
+        <v>2.7282552</v>
+      </c>
+      <c r="N14">
+        <v>20.1897448</v>
+      </c>
+      <c r="O14">
+        <v>3.428218667040001</v>
+      </c>
+      <c r="P14">
+        <v>16.76152613296</v>
+      </c>
+      <c r="Q14">
+        <v>16.94352613296</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.09091903823988939</v>
+      </c>
+      <c r="T14">
+        <v>1.016426379077078</v>
+      </c>
+      <c r="U14">
+        <v>0.02</v>
+      </c>
+      <c r="V14">
+        <v>0.1698</v>
+      </c>
+      <c r="W14">
+        <v>0.016604</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>8.400240564005891</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.08206849710633328</v>
+      </c>
+      <c r="C15">
+        <v>997.8841565030638</v>
+      </c>
+      <c r="D15">
+        <v>1145.266646503064</v>
+      </c>
+      <c r="E15">
+        <v>147.00749</v>
+      </c>
+      <c r="F15">
+        <v>147.78049</v>
+      </c>
+      <c r="G15">
+        <v>0.398</v>
+      </c>
+      <c r="H15">
+        <v>1136</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>23.1</v>
+      </c>
+      <c r="K15">
+        <v>0.182</v>
+      </c>
+      <c r="L15">
+        <v>22.918</v>
+      </c>
+      <c r="M15">
+        <v>3.118168339</v>
+      </c>
+      <c r="N15">
+        <v>19.799831661</v>
+      </c>
+      <c r="O15">
+        <v>3.362011416037801</v>
+      </c>
+      <c r="P15">
+        <v>16.4378202449622</v>
+      </c>
+      <c r="Q15">
+        <v>16.6198202449622</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.0917140902371647</v>
+      </c>
+      <c r="T15">
+        <v>1.026327400213757</v>
+      </c>
+      <c r="U15">
+        <v>0.0211</v>
+      </c>
+      <c r="V15">
+        <v>0.1698</v>
+      </c>
+      <c r="W15">
+        <v>0.01751722</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>7.349827689979635</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.08202617416156389</v>
+      </c>
+      <c r="C16">
+        <v>987.1829136046472</v>
+      </c>
+      <c r="D16">
+        <v>1145.933133604647</v>
+      </c>
+      <c r="E16">
+        <v>158.37522</v>
+      </c>
+      <c r="F16">
+        <v>159.14822</v>
+      </c>
+      <c r="G16">
+        <v>0.398</v>
+      </c>
+      <c r="H16">
+        <v>1136</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>23.1</v>
+      </c>
+      <c r="K16">
+        <v>0.182</v>
+      </c>
+      <c r="L16">
+        <v>22.918</v>
+      </c>
+      <c r="M16">
+        <v>3.358027442</v>
+      </c>
+      <c r="N16">
+        <v>19.559972558</v>
+      </c>
+      <c r="O16">
+        <v>3.3212833403484</v>
+      </c>
+      <c r="P16">
+        <v>16.2386892176516</v>
+      </c>
+      <c r="Q16">
+        <v>16.4206892176516</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.09252763181577198</v>
+      </c>
+      <c r="T16">
+        <v>1.03645867765594</v>
+      </c>
+      <c r="U16">
+        <v>0.0211</v>
+      </c>
+      <c r="V16">
+        <v>0.1698</v>
+      </c>
+      <c r="W16">
+        <v>0.01751722</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>6.824839997838231</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.0821706462167945</v>
+      </c>
+      <c r="C17">
+        <v>973.5432768278611</v>
+      </c>
+      <c r="D17">
+        <v>1143.661226827861</v>
+      </c>
+      <c r="E17">
+        <v>169.74295</v>
+      </c>
+      <c r="F17">
+        <v>170.51595</v>
+      </c>
+      <c r="G17">
+        <v>0.398</v>
+      </c>
+      <c r="H17">
+        <v>1136</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>23.1</v>
+      </c>
+      <c r="K17">
+        <v>0.182</v>
+      </c>
+      <c r="L17">
+        <v>22.918</v>
+      </c>
+      <c r="M17">
+        <v>3.853660469999999</v>
+      </c>
+      <c r="N17">
+        <v>19.06433953000001</v>
+      </c>
+      <c r="O17">
+        <v>3.237124852194001</v>
+      </c>
+      <c r="P17">
+        <v>15.827214677806</v>
+      </c>
+      <c r="Q17">
+        <v>16.009214677806</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.09336031554917</v>
+      </c>
+      <c r="T17">
+        <v>1.046828338096762</v>
+      </c>
+      <c r="U17">
+        <v>0.0226</v>
+      </c>
+      <c r="V17">
+        <v>0.1698</v>
+      </c>
+      <c r="W17">
+        <v>0.01876252</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>5.947072965667889</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.08214077627202511</v>
+      </c>
+      <c r="C18">
+        <v>962.6445299912565</v>
+      </c>
+      <c r="D18">
+        <v>1144.130209991257</v>
+      </c>
+      <c r="E18">
+        <v>181.11068</v>
+      </c>
+      <c r="F18">
+        <v>181.88368</v>
+      </c>
+      <c r="G18">
+        <v>0.398</v>
+      </c>
+      <c r="H18">
+        <v>1136</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>23.1</v>
+      </c>
+      <c r="K18">
+        <v>0.182</v>
+      </c>
+      <c r="L18">
+        <v>22.918</v>
+      </c>
+      <c r="M18">
+        <v>4.110571168</v>
+      </c>
+      <c r="N18">
+        <v>18.807428832</v>
+      </c>
+      <c r="O18">
+        <v>3.193501415673601</v>
+      </c>
+      <c r="P18">
+        <v>15.6139274163264</v>
+      </c>
+      <c r="Q18">
+        <v>15.7959274163264</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.09421282508574418</v>
+      </c>
+      <c r="T18">
+        <v>1.057444895214747</v>
+      </c>
+      <c r="U18">
+        <v>0.0226</v>
+      </c>
+      <c r="V18">
+        <v>0.1698</v>
+      </c>
+      <c r="W18">
+        <v>0.01876252</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>5.575380905313644</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.08211090632725571</v>
+      </c>
+      <c r="C19">
+        <v>951.7461679459396</v>
+      </c>
+      <c r="D19">
+        <v>1144.59957794594</v>
+      </c>
+      <c r="E19">
+        <v>192.47841</v>
+      </c>
+      <c r="F19">
+        <v>193.25141</v>
+      </c>
+      <c r="G19">
+        <v>0.398</v>
+      </c>
+      <c r="H19">
+        <v>1136</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>23.1</v>
+      </c>
+      <c r="K19">
+        <v>0.182</v>
+      </c>
+      <c r="L19">
+        <v>22.918</v>
+      </c>
+      <c r="M19">
+        <v>4.367481865999999</v>
+      </c>
+      <c r="N19">
+        <v>18.550518134</v>
+      </c>
+      <c r="O19">
+        <v>3.149877979153201</v>
+      </c>
+      <c r="P19">
+        <v>15.4006401548468</v>
+      </c>
+      <c r="Q19">
+        <v>15.5826401548468</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.09508587702079001</v>
+      </c>
+      <c r="T19">
+        <v>1.068317272986177</v>
+      </c>
+      <c r="U19">
+        <v>0.0226</v>
+      </c>
+      <c r="V19">
+        <v>0.1698</v>
+      </c>
+      <c r="W19">
+        <v>0.01876252</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>5.247417322648136</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.08208103638248632</v>
+      </c>
+      <c r="C20">
+        <v>940.8481911656745</v>
+      </c>
+      <c r="D20">
+        <v>1145.069331165675</v>
+      </c>
+      <c r="E20">
+        <v>203.84614</v>
+      </c>
+      <c r="F20">
+        <v>204.61914</v>
+      </c>
+      <c r="G20">
+        <v>0.398</v>
+      </c>
+      <c r="H20">
+        <v>1136</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>23.1</v>
+      </c>
+      <c r="K20">
+        <v>0.182</v>
+      </c>
+      <c r="L20">
+        <v>22.918</v>
+      </c>
+      <c r="M20">
+        <v>4.624392563999999</v>
+      </c>
+      <c r="N20">
+        <v>18.293607436</v>
+      </c>
+      <c r="O20">
+        <v>3.1062545426328</v>
+      </c>
+      <c r="P20">
+        <v>15.1873528933672</v>
+      </c>
+      <c r="Q20">
+        <v>15.3693528933672</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.0959802229054711</v>
+      </c>
+      <c r="T20">
+        <v>1.079454830703252</v>
+      </c>
+      <c r="U20">
+        <v>0.0226</v>
+      </c>
+      <c r="V20">
+        <v>0.1698</v>
+      </c>
+      <c r="W20">
+        <v>0.01876252</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>4.955894138056573</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.08205116643771693</v>
+      </c>
+      <c r="C21">
+        <v>929.950600125004</v>
+      </c>
+      <c r="D21">
+        <v>1145.539470125004</v>
+      </c>
+      <c r="E21">
+        <v>215.21387</v>
+      </c>
+      <c r="F21">
+        <v>215.98687</v>
+      </c>
+      <c r="G21">
+        <v>0.398</v>
+      </c>
+      <c r="H21">
+        <v>1136</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>23.1</v>
+      </c>
+      <c r="K21">
+        <v>0.182</v>
+      </c>
+      <c r="L21">
+        <v>22.918</v>
+      </c>
+      <c r="M21">
+        <v>4.881303261999999</v>
+      </c>
+      <c r="N21">
+        <v>18.036696738</v>
+      </c>
+      <c r="O21">
+        <v>3.062631106112401</v>
+      </c>
+      <c r="P21">
+        <v>14.9740656318876</v>
+      </c>
+      <c r="Q21">
+        <v>15.1560656318876</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.09689665140458879</v>
+      </c>
+      <c r="T21">
+        <v>1.09086738984544</v>
+      </c>
+      <c r="U21">
+        <v>0.0226</v>
+      </c>
+      <c r="V21">
+        <v>0.1698</v>
+      </c>
+      <c r="W21">
+        <v>0.01876252</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>4.695057604474648</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.09683277431123968</v>
+      </c>
+      <c r="C22">
+        <v>725.13629672128</v>
+      </c>
+      <c r="D22">
+        <v>952.09289672128</v>
+      </c>
+      <c r="E22">
+        <v>226.5816</v>
+      </c>
+      <c r="F22">
+        <v>227.3546</v>
+      </c>
+      <c r="G22">
+        <v>0.398</v>
+      </c>
+      <c r="H22">
+        <v>1136</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>23.1</v>
+      </c>
+      <c r="K22">
+        <v>0.182</v>
+      </c>
+      <c r="L22">
+        <v>22.918</v>
+      </c>
+      <c r="M22">
+        <v>24.7816514</v>
+      </c>
+      <c r="N22">
+        <v>-1.863651399999998</v>
+      </c>
+      <c r="O22">
+        <v>-0.3164480077199998</v>
+      </c>
+      <c r="P22">
+        <v>-1.547203392279999</v>
+      </c>
+      <c r="Q22">
+        <v>-1.365203392279999</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.09807005043235419</v>
+      </c>
+      <c r="T22">
+        <v>1.105480080104037</v>
+      </c>
+      <c r="U22">
+        <v>0.109</v>
+      </c>
+      <c r="V22">
+        <v>0.1570305520478752</v>
+      </c>
+      <c r="W22">
+        <v>0.0918836698267816</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.924797126312575</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09782977431123967</v>
+      </c>
+      <c r="C23">
+        <v>703.0463365403477</v>
+      </c>
+      <c r="D23">
+        <v>941.3706665403477</v>
+      </c>
+      <c r="E23">
+        <v>237.94933</v>
+      </c>
+      <c r="F23">
+        <v>238.72233</v>
+      </c>
+      <c r="G23">
+        <v>0.398</v>
+      </c>
+      <c r="H23">
+        <v>1136</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>23.1</v>
+      </c>
+      <c r="K23">
+        <v>0.182</v>
+      </c>
+      <c r="L23">
+        <v>22.918</v>
+      </c>
+      <c r="M23">
+        <v>26.02073397</v>
+      </c>
+      <c r="N23">
+        <v>-3.102733969999996</v>
+      </c>
+      <c r="O23">
+        <v>-0.5268442281059993</v>
+      </c>
+      <c r="P23">
+        <v>-2.575889741893996</v>
+      </c>
+      <c r="Q23">
+        <v>-2.393889741893996</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.09919372195681435</v>
+      </c>
+      <c r="T23">
+        <v>1.119473498839531</v>
+      </c>
+      <c r="U23">
+        <v>0.109</v>
+      </c>
+      <c r="V23">
+        <v>0.1495529067122622</v>
+      </c>
+      <c r="W23">
+        <v>0.09269873316836343</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.8807591679167383</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09882677431123967</v>
+      </c>
+      <c r="C24">
+        <v>681.1951890179217</v>
+      </c>
+      <c r="D24">
+        <v>930.8872490179217</v>
+      </c>
+      <c r="E24">
+        <v>249.31706</v>
+      </c>
+      <c r="F24">
+        <v>250.09006</v>
+      </c>
+      <c r="G24">
+        <v>0.398</v>
+      </c>
+      <c r="H24">
+        <v>1136</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>23.1</v>
+      </c>
+      <c r="K24">
+        <v>0.182</v>
+      </c>
+      <c r="L24">
+        <v>22.918</v>
+      </c>
+      <c r="M24">
+        <v>27.25981654</v>
+      </c>
+      <c r="N24">
+        <v>-4.341816539999996</v>
+      </c>
+      <c r="O24">
+        <v>-0.7372404484919994</v>
+      </c>
+      <c r="P24">
+        <v>-3.604576091507997</v>
+      </c>
+      <c r="Q24">
+        <v>-3.422576091507997</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1003462055716453</v>
+      </c>
+      <c r="T24">
+        <v>1.133825723183628</v>
+      </c>
+      <c r="U24">
+        <v>0.109</v>
+      </c>
+      <c r="V24">
+        <v>0.1427550473162502</v>
+      </c>
+      <c r="W24">
+        <v>0.09343969984252873</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.8407246602841592</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.09982377431123965</v>
+      </c>
+      <c r="C25">
+        <v>659.5749635344714</v>
+      </c>
+      <c r="D25">
+        <v>920.6347535344714</v>
+      </c>
+      <c r="E25">
+        <v>260.68479</v>
+      </c>
+      <c r="F25">
+        <v>261.45779</v>
+      </c>
+      <c r="G25">
+        <v>0.398</v>
+      </c>
+      <c r="H25">
+        <v>1136</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>23.1</v>
+      </c>
+      <c r="K25">
+        <v>0.182</v>
+      </c>
+      <c r="L25">
+        <v>22.918</v>
+      </c>
+      <c r="M25">
+        <v>28.49889911</v>
+      </c>
+      <c r="N25">
+        <v>-5.580899109999997</v>
+      </c>
+      <c r="O25">
+        <v>-0.9476366688779996</v>
+      </c>
+      <c r="P25">
+        <v>-4.633262441121998</v>
+      </c>
+      <c r="Q25">
+        <v>-4.451262441121997</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1015286238258225</v>
+      </c>
+      <c r="T25">
+        <v>1.148550732575623</v>
+      </c>
+      <c r="U25">
+        <v>0.109</v>
+      </c>
+      <c r="V25">
+        <v>0.1365483061285872</v>
+      </c>
+      <c r="W25">
+        <v>0.094116234631984</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.8041714141848479</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.108821205390587</v>
+      </c>
+      <c r="C26">
+        <v>564.9752458222142</v>
+      </c>
+      <c r="D26">
+        <v>837.4027658222142</v>
+      </c>
+      <c r="E26">
+        <v>272.05252</v>
+      </c>
+      <c r="F26">
+        <v>272.82552</v>
+      </c>
+      <c r="G26">
+        <v>0.398</v>
+      </c>
+      <c r="H26">
+        <v>1136</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>23.1</v>
+      </c>
+      <c r="K26">
+        <v>0.182</v>
+      </c>
+      <c r="L26">
+        <v>22.918</v>
+      </c>
+      <c r="M26">
+        <v>38.25013790399999</v>
+      </c>
+      <c r="N26">
+        <v>-15.33213790399999</v>
+      </c>
+      <c r="O26">
+        <v>-2.603397016099198</v>
+      </c>
+      <c r="P26">
+        <v>-12.72874088790079</v>
+      </c>
+      <c r="Q26">
+        <v>-12.54674088790079</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1034164097700404</v>
+      </c>
+      <c r="T26">
+        <v>1.172059897509844</v>
+      </c>
+      <c r="U26">
+        <v>0.1402</v>
+      </c>
+      <c r="V26">
+        <v>0.101737578300157</v>
+      </c>
+      <c r="W26">
+        <v>0.125936391522318</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.5991612385168255</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.110130205390587</v>
+      </c>
+      <c r="C27">
+        <v>542.7361681321538</v>
+      </c>
+      <c r="D27">
+        <v>826.5314181321537</v>
+      </c>
+      <c r="E27">
+        <v>283.42025</v>
+      </c>
+      <c r="F27">
+        <v>284.19325</v>
+      </c>
+      <c r="G27">
+        <v>0.398</v>
+      </c>
+      <c r="H27">
+        <v>1136</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>23.1</v>
+      </c>
+      <c r="K27">
+        <v>0.182</v>
+      </c>
+      <c r="L27">
+        <v>22.918</v>
+      </c>
+      <c r="M27">
+        <v>39.84389364999999</v>
+      </c>
+      <c r="N27">
+        <v>-16.92589364999999</v>
+      </c>
+      <c r="O27">
+        <v>-2.874016741769998</v>
+      </c>
+      <c r="P27">
+        <v>-14.05187690822999</v>
+      </c>
+      <c r="Q27">
+        <v>-13.86987690822999</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.104671295233641</v>
+      </c>
+      <c r="T27">
+        <v>1.187687362809975</v>
+      </c>
+      <c r="U27">
+        <v>0.1402</v>
+      </c>
+      <c r="V27">
+        <v>0.09766807516815068</v>
+      </c>
+      <c r="W27">
+        <v>0.1265069358614253</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.5751947889761524</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.111439205390587</v>
+      </c>
+      <c r="C28">
+        <v>520.7757414081326</v>
+      </c>
+      <c r="D28">
+        <v>815.9387214081326</v>
+      </c>
+      <c r="E28">
+        <v>294.7879799999999</v>
+      </c>
+      <c r="F28">
+        <v>295.56098</v>
+      </c>
+      <c r="G28">
+        <v>0.398</v>
+      </c>
+      <c r="H28">
+        <v>1136</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>23.1</v>
+      </c>
+      <c r="K28">
+        <v>0.182</v>
+      </c>
+      <c r="L28">
+        <v>22.918</v>
+      </c>
+      <c r="M28">
+        <v>41.43764939599999</v>
+      </c>
+      <c r="N28">
+        <v>-18.51964939599999</v>
+      </c>
+      <c r="O28">
+        <v>-3.144636467440798</v>
+      </c>
+      <c r="P28">
+        <v>-15.37501292855919</v>
+      </c>
+      <c r="Q28">
+        <v>-15.19301292855919</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1059600965205821</v>
+      </c>
+      <c r="T28">
+        <v>1.203737192037137</v>
+      </c>
+      <c r="U28">
+        <v>0.1402</v>
+      </c>
+      <c r="V28">
+        <v>0.09391161073860642</v>
+      </c>
+      <c r="W28">
+        <v>0.1270335921744474</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.5530719124770695</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1127482053905871</v>
+      </c>
+      <c r="C29">
+        <v>499.083387773623</v>
+      </c>
+      <c r="D29">
+        <v>805.614097773623</v>
+      </c>
+      <c r="E29">
+        <v>306.15571</v>
+      </c>
+      <c r="F29">
+        <v>306.92871</v>
+      </c>
+      <c r="G29">
+        <v>0.398</v>
+      </c>
+      <c r="H29">
+        <v>1136</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>23.1</v>
+      </c>
+      <c r="K29">
+        <v>0.182</v>
+      </c>
+      <c r="L29">
+        <v>22.918</v>
+      </c>
+      <c r="M29">
+        <v>43.031405142</v>
+      </c>
+      <c r="N29">
+        <v>-20.113405142</v>
+      </c>
+      <c r="O29">
+        <v>-3.4152561931116</v>
+      </c>
+      <c r="P29">
+        <v>-16.6981489488884</v>
+      </c>
+      <c r="Q29">
+        <v>-16.5161489488884</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1072842074318229</v>
+      </c>
+      <c r="T29">
+        <v>1.220226742612988</v>
+      </c>
+      <c r="U29">
+        <v>0.1402</v>
+      </c>
+      <c r="V29">
+        <v>0.09043340293347282</v>
+      </c>
+      <c r="W29">
+        <v>0.1275212369087271</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.5325877675705113</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1140572053905871</v>
+      </c>
+      <c r="C30">
+        <v>477.6490580580827</v>
+      </c>
+      <c r="D30">
+        <v>795.5474980580827</v>
+      </c>
+      <c r="E30">
+        <v>317.52344</v>
+      </c>
+      <c r="F30">
+        <v>318.29644</v>
+      </c>
+      <c r="G30">
+        <v>0.398</v>
+      </c>
+      <c r="H30">
+        <v>1136</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>23.1</v>
+      </c>
+      <c r="K30">
+        <v>0.182</v>
+      </c>
+      <c r="L30">
+        <v>22.918</v>
+      </c>
+      <c r="M30">
+        <v>44.625160888</v>
+      </c>
+      <c r="N30">
+        <v>-21.70716088799999</v>
+      </c>
+      <c r="O30">
+        <v>-3.685875918782399</v>
+      </c>
+      <c r="P30">
+        <v>-18.0212849692176</v>
+      </c>
+      <c r="Q30">
+        <v>-17.8392849692176</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1086450992017094</v>
+      </c>
+      <c r="T30">
+        <v>1.23717433626039</v>
+      </c>
+      <c r="U30">
+        <v>0.1402</v>
+      </c>
+      <c r="V30">
+        <v>0.08720363854299165</v>
+      </c>
+      <c r="W30">
+        <v>0.1279740498762726</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.5135667758715645</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1284051288657915</v>
+      </c>
+      <c r="C31">
+        <v>370.4462054926256</v>
+      </c>
+      <c r="D31">
+        <v>699.7123754926255</v>
+      </c>
+      <c r="E31">
+        <v>328.8911699999999</v>
+      </c>
+      <c r="F31">
+        <v>329.66417</v>
+      </c>
+      <c r="G31">
+        <v>0.398</v>
+      </c>
+      <c r="H31">
+        <v>1136</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>23.1</v>
+      </c>
+      <c r="K31">
+        <v>0.182</v>
+      </c>
+      <c r="L31">
+        <v>22.918</v>
+      </c>
+      <c r="M31">
+        <v>60.55930802899999</v>
+      </c>
+      <c r="N31">
+        <v>-37.64130802899999</v>
+      </c>
+      <c r="O31">
+        <v>-6.391494103324198</v>
+      </c>
+      <c r="P31">
+        <v>-31.24981392567579</v>
+      </c>
+      <c r="Q31">
+        <v>-31.06781392567579</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1106414012682185</v>
+      </c>
+      <c r="T31">
+        <v>1.262034885033855</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.06425893106533667</v>
+      </c>
+      <c r="W31">
+        <v>0.1718956343632977</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.3784389344248332</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1301491288657915</v>
+      </c>
+      <c r="C32">
+        <v>348.9807743812312</v>
+      </c>
+      <c r="D32">
+        <v>689.6146743812311</v>
+      </c>
+      <c r="E32">
+        <v>340.2588999999999</v>
+      </c>
+      <c r="F32">
+        <v>341.0319</v>
+      </c>
+      <c r="G32">
+        <v>0.398</v>
+      </c>
+      <c r="H32">
+        <v>1136</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>23.1</v>
+      </c>
+      <c r="K32">
+        <v>0.182</v>
+      </c>
+      <c r="L32">
+        <v>22.918</v>
+      </c>
+      <c r="M32">
+        <v>62.64756002999999</v>
+      </c>
+      <c r="N32">
+        <v>-39.72956002999999</v>
+      </c>
+      <c r="O32">
+        <v>-6.746079293093998</v>
+      </c>
+      <c r="P32">
+        <v>-32.98348073690599</v>
+      </c>
+      <c r="Q32">
+        <v>-32.80148073690599</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1120891355720502</v>
+      </c>
+      <c r="T32">
+        <v>1.280063954820053</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.06211696669649212</v>
+      </c>
+      <c r="W32">
+        <v>0.1722891132178544</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.3658243032773388</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1318931288657915</v>
+      </c>
+      <c r="C33">
+        <v>327.8026414390118</v>
+      </c>
+      <c r="D33">
+        <v>679.8042714390117</v>
+      </c>
+      <c r="E33">
+        <v>351.6266299999999</v>
+      </c>
+      <c r="F33">
+        <v>352.3996299999999</v>
+      </c>
+      <c r="G33">
+        <v>0.398</v>
+      </c>
+      <c r="H33">
+        <v>1136</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>23.1</v>
+      </c>
+      <c r="K33">
+        <v>0.182</v>
+      </c>
+      <c r="L33">
+        <v>22.918</v>
+      </c>
+      <c r="M33">
+        <v>64.73581203099999</v>
+      </c>
+      <c r="N33">
+        <v>-41.81781203099999</v>
+      </c>
+      <c r="O33">
+        <v>-7.100664482863798</v>
+      </c>
+      <c r="P33">
+        <v>-34.71714754813619</v>
+      </c>
+      <c r="Q33">
+        <v>-34.53514754813619</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1135788331890365</v>
+      </c>
+      <c r="T33">
+        <v>1.298615606339184</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.06011319357725044</v>
+      </c>
+      <c r="W33">
+        <v>0.1726572063398591</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.3540235193006505</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1336371288657915</v>
+      </c>
+      <c r="C34">
+        <v>306.8997174048197</v>
+      </c>
+      <c r="D34">
+        <v>670.2690774048197</v>
+      </c>
+      <c r="E34">
+        <v>362.99436</v>
+      </c>
+      <c r="F34">
+        <v>363.76736</v>
+      </c>
+      <c r="G34">
+        <v>0.398</v>
+      </c>
+      <c r="H34">
+        <v>1136</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>23.1</v>
+      </c>
+      <c r="K34">
+        <v>0.182</v>
+      </c>
+      <c r="L34">
+        <v>22.918</v>
+      </c>
+      <c r="M34">
+        <v>66.824064032</v>
+      </c>
+      <c r="N34">
+        <v>-43.90606403199999</v>
+      </c>
+      <c r="O34">
+        <v>-7.455249672633599</v>
+      </c>
+      <c r="P34">
+        <v>-36.45081435936639</v>
+      </c>
+      <c r="Q34">
+        <v>-36.26881435936639</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1151123454418164</v>
+      </c>
+      <c r="T34">
+        <v>1.317712894667701</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.05823465627796136</v>
+      </c>
+      <c r="W34">
+        <v>0.1730022936417385</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.3429602843225051</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1353811288657915</v>
+      </c>
+      <c r="C35">
+        <v>286.2605819097253</v>
+      </c>
+      <c r="D35">
+        <v>660.9976719097252</v>
+      </c>
+      <c r="E35">
+        <v>374.36209</v>
+      </c>
+      <c r="F35">
+        <v>375.13509</v>
+      </c>
+      <c r="G35">
+        <v>0.398</v>
+      </c>
+      <c r="H35">
+        <v>1136</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>23.1</v>
+      </c>
+      <c r="K35">
+        <v>0.182</v>
+      </c>
+      <c r="L35">
+        <v>22.918</v>
+      </c>
+      <c r="M35">
+        <v>68.912316033</v>
+      </c>
+      <c r="N35">
+        <v>-45.99431603299999</v>
+      </c>
+      <c r="O35">
+        <v>-7.809834862403399</v>
+      </c>
+      <c r="P35">
+        <v>-38.18448117059659</v>
+      </c>
+      <c r="Q35">
+        <v>-38.00248117059659</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.116691634179754</v>
+      </c>
+      <c r="T35">
+        <v>1.337380251304533</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.05646996972408375</v>
+      </c>
+      <c r="W35">
+        <v>0.1733264665616858</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.3325675484339443</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1371251288657915</v>
+      </c>
+      <c r="C36">
+        <v>265.8744378463927</v>
+      </c>
+      <c r="D36">
+        <v>651.9792578463927</v>
+      </c>
+      <c r="E36">
+        <v>385.72982</v>
+      </c>
+      <c r="F36">
+        <v>386.50282</v>
+      </c>
+      <c r="G36">
+        <v>0.398</v>
+      </c>
+      <c r="H36">
+        <v>1136</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>23.1</v>
+      </c>
+      <c r="K36">
+        <v>0.182</v>
+      </c>
+      <c r="L36">
+        <v>22.918</v>
+      </c>
+      <c r="M36">
+        <v>71.000568034</v>
+      </c>
+      <c r="N36">
+        <v>-48.08256803399999</v>
+      </c>
+      <c r="O36">
+        <v>-8.164420052173199</v>
+      </c>
+      <c r="P36">
+        <v>-39.91814798182679</v>
+      </c>
+      <c r="Q36">
+        <v>-39.73614798182679</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1183187801521745</v>
+      </c>
+      <c r="T36">
+        <v>1.35764358844551</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.0548090882616107</v>
+      </c>
+      <c r="W36">
+        <v>0.1736315704863421</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.3227861499505931</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1388691288657915</v>
+      </c>
+      <c r="C37">
+        <v>245.731069423587</v>
+      </c>
+      <c r="D37">
+        <v>643.2036194235869</v>
+      </c>
+      <c r="E37">
+        <v>397.09755</v>
+      </c>
+      <c r="F37">
+        <v>397.87055</v>
+      </c>
+      <c r="G37">
+        <v>0.398</v>
+      </c>
+      <c r="H37">
+        <v>1136</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>23.1</v>
+      </c>
+      <c r="K37">
+        <v>0.182</v>
+      </c>
+      <c r="L37">
+        <v>22.918</v>
+      </c>
+      <c r="M37">
+        <v>73.088820035</v>
+      </c>
+      <c r="N37">
+        <v>-50.17082003499999</v>
+      </c>
+      <c r="O37">
+        <v>-8.519005241942999</v>
+      </c>
+      <c r="P37">
+        <v>-41.65181479305699</v>
+      </c>
+      <c r="Q37">
+        <v>-41.46981479305699</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1199959921545156</v>
+      </c>
+      <c r="T37">
+        <v>1.378530412883134</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.05324311431127896</v>
+      </c>
+      <c r="W37">
+        <v>0.1739192399010181</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.3135636885234332</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1406131288657915</v>
+      </c>
+      <c r="C38">
+        <v>225.8208035632069</v>
+      </c>
+      <c r="D38">
+        <v>634.6610835632068</v>
+      </c>
+      <c r="E38">
+        <v>408.46528</v>
+      </c>
+      <c r="F38">
+        <v>409.23828</v>
+      </c>
+      <c r="G38">
+        <v>0.398</v>
+      </c>
+      <c r="H38">
+        <v>1136</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>23.1</v>
+      </c>
+      <c r="K38">
+        <v>0.182</v>
+      </c>
+      <c r="L38">
+        <v>22.918</v>
+      </c>
+      <c r="M38">
+        <v>75.177072036</v>
+      </c>
+      <c r="N38">
+        <v>-52.25907203599999</v>
+      </c>
+      <c r="O38">
+        <v>-8.873590431712799</v>
+      </c>
+      <c r="P38">
+        <v>-43.38548160428719</v>
+      </c>
+      <c r="Q38">
+        <v>-43.20348160428719</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1217256170319299</v>
+      </c>
+      <c r="T38">
+        <v>1.400069950584433</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.05176413891374344</v>
+      </c>
+      <c r="W38">
+        <v>0.1741909276815453</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.304853586064449</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1423571288657915</v>
+      </c>
+      <c r="C39">
+        <v>206.1344743331674</v>
+      </c>
+      <c r="D39">
+        <v>626.3424843331674</v>
+      </c>
+      <c r="E39">
+        <v>419.8330099999999</v>
+      </c>
+      <c r="F39">
+        <v>420.60601</v>
+      </c>
+      <c r="G39">
+        <v>0.398</v>
+      </c>
+      <c r="H39">
+        <v>1136</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>23.1</v>
+      </c>
+      <c r="K39">
+        <v>0.182</v>
+      </c>
+      <c r="L39">
+        <v>22.918</v>
+      </c>
+      <c r="M39">
+        <v>77.265324037</v>
+      </c>
+      <c r="N39">
+        <v>-54.34732403699999</v>
+      </c>
+      <c r="O39">
+        <v>-9.228175621482599</v>
+      </c>
+      <c r="P39">
+        <v>-45.11914841551739</v>
+      </c>
+      <c r="Q39">
+        <v>-44.93714841551739</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1235101506356114</v>
+      </c>
+      <c r="T39">
+        <v>1.422293283133392</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.05036510813229091</v>
+      </c>
+      <c r="W39">
+        <v>0.1744479296360982</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.296614299954599</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1441011288657915</v>
+      </c>
+      <c r="C40">
+        <v>186.6633901411964</v>
+      </c>
+      <c r="D40">
+        <v>618.2391301411964</v>
+      </c>
+      <c r="E40">
+        <v>431.2007399999999</v>
+      </c>
+      <c r="F40">
+        <v>431.97374</v>
+      </c>
+      <c r="G40">
+        <v>0.398</v>
+      </c>
+      <c r="H40">
+        <v>1136</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>23.1</v>
+      </c>
+      <c r="K40">
+        <v>0.182</v>
+      </c>
+      <c r="L40">
+        <v>22.918</v>
+      </c>
+      <c r="M40">
+        <v>79.353576038</v>
+      </c>
+      <c r="N40">
+        <v>-56.43557603799999</v>
+      </c>
+      <c r="O40">
+        <v>-9.582760811252399</v>
+      </c>
+      <c r="P40">
+        <v>-46.85281522674759</v>
+      </c>
+      <c r="Q40">
+        <v>-46.67081522674759</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1253522498394115</v>
+      </c>
+      <c r="T40">
+        <v>1.445233497377479</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.0490397105498622</v>
+      </c>
+      <c r="W40">
+        <v>0.1746914051719903</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.2888086604821095</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1458451288657915</v>
+      </c>
+      <c r="C41">
+        <v>167.3993034427014</v>
+      </c>
+      <c r="D41">
+        <v>610.3427734427013</v>
+      </c>
+      <c r="E41">
+        <v>442.5684699999999</v>
+      </c>
+      <c r="F41">
+        <v>443.34147</v>
+      </c>
+      <c r="G41">
+        <v>0.398</v>
+      </c>
+      <c r="H41">
+        <v>1136</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>23.1</v>
+      </c>
+      <c r="K41">
+        <v>0.182</v>
+      </c>
+      <c r="L41">
+        <v>22.918</v>
+      </c>
+      <c r="M41">
+        <v>81.44182803899999</v>
+      </c>
+      <c r="N41">
+        <v>-58.52382803899998</v>
+      </c>
+      <c r="O41">
+        <v>-9.937346001022197</v>
+      </c>
+      <c r="P41">
+        <v>-48.58648203797778</v>
+      </c>
+      <c r="Q41">
+        <v>-48.40448203797778</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1272547457384183</v>
+      </c>
+      <c r="T41">
+        <v>1.468925849793503</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.04778228207422471</v>
+      </c>
+      <c r="W41">
+        <v>0.1749223947829649</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.2814033102133375</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1475891288657915</v>
+      </c>
+      <c r="C42">
+        <v>148.3343827407692</v>
+      </c>
+      <c r="D42">
+        <v>602.6455827407692</v>
+      </c>
+      <c r="E42">
+        <v>453.9362</v>
+      </c>
+      <c r="F42">
+        <v>454.7092</v>
+      </c>
+      <c r="G42">
+        <v>0.398</v>
+      </c>
+      <c r="H42">
+        <v>1136</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>23.1</v>
+      </c>
+      <c r="K42">
+        <v>0.182</v>
+      </c>
+      <c r="L42">
+        <v>22.918</v>
+      </c>
+      <c r="M42">
+        <v>83.53008004</v>
+      </c>
+      <c r="N42">
+        <v>-60.61208004</v>
+      </c>
+      <c r="O42">
+        <v>-10.291931190792</v>
+      </c>
+      <c r="P42">
+        <v>-50.320148849208</v>
+      </c>
+      <c r="Q42">
+        <v>-50.13814884920799</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1292206581673919</v>
+      </c>
+      <c r="T42">
+        <v>1.493407947290062</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.04658772502236909</v>
+      </c>
+      <c r="W42">
+        <v>0.1751418349133908</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.274368227458004</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1493331288657915</v>
+      </c>
+      <c r="C43">
+        <v>129.461186678469</v>
+      </c>
+      <c r="D43">
+        <v>595.140116678469</v>
+      </c>
+      <c r="E43">
+        <v>465.30393</v>
+      </c>
+      <c r="F43">
+        <v>466.07693</v>
+      </c>
+      <c r="G43">
+        <v>0.398</v>
+      </c>
+      <c r="H43">
+        <v>1136</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>23.1</v>
+      </c>
+      <c r="K43">
+        <v>0.182</v>
+      </c>
+      <c r="L43">
+        <v>22.918</v>
+      </c>
+      <c r="M43">
+        <v>85.618332041</v>
+      </c>
+      <c r="N43">
+        <v>-62.700332041</v>
+      </c>
+      <c r="O43">
+        <v>-10.6465163805618</v>
+      </c>
+      <c r="P43">
+        <v>-52.0538156604382</v>
+      </c>
+      <c r="Q43">
+        <v>-51.87181566043819</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1312532116956528</v>
+      </c>
+      <c r="T43">
+        <v>1.518719946396673</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.04545143904621374</v>
+      </c>
+      <c r="W43">
+        <v>0.1753505706472105</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.2676763194712235</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1510771288657915</v>
+      </c>
+      <c r="C44">
+        <v>110.7726400432996</v>
+      </c>
+      <c r="D44">
+        <v>587.8193000432996</v>
+      </c>
+      <c r="E44">
+        <v>476.6716599999999</v>
+      </c>
+      <c r="F44">
+        <v>477.4446599999999</v>
+      </c>
+      <c r="G44">
+        <v>0.398</v>
+      </c>
+      <c r="H44">
+        <v>1136</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>23.1</v>
+      </c>
+      <c r="K44">
+        <v>0.182</v>
+      </c>
+      <c r="L44">
+        <v>22.918</v>
+      </c>
+      <c r="M44">
+        <v>87.70658404199999</v>
+      </c>
+      <c r="N44">
+        <v>-64.78858404199998</v>
+      </c>
+      <c r="O44">
+        <v>-11.0011015703316</v>
+      </c>
+      <c r="P44">
+        <v>-53.78748247166838</v>
+      </c>
+      <c r="Q44">
+        <v>-53.60548247166838</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1333558532766123</v>
+      </c>
+      <c r="T44">
+        <v>1.544904773058684</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.0443692619260658</v>
+      </c>
+      <c r="W44">
+        <v>0.1755493665841817</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.2613030737695278</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1528211288657915</v>
+      </c>
+      <c r="C45">
+        <v>92.26201152113049</v>
+      </c>
+      <c r="D45">
+        <v>580.6764015211304</v>
+      </c>
+      <c r="E45">
+        <v>488.0393899999999</v>
+      </c>
+      <c r="F45">
+        <v>488.8123899999999</v>
+      </c>
+      <c r="G45">
+        <v>0.398</v>
+      </c>
+      <c r="H45">
+        <v>1136</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>23.1</v>
+      </c>
+      <c r="K45">
+        <v>0.182</v>
+      </c>
+      <c r="L45">
+        <v>22.918</v>
+      </c>
+      <c r="M45">
+        <v>89.79483604299999</v>
+      </c>
+      <c r="N45">
+        <v>-66.87683604299998</v>
+      </c>
+      <c r="O45">
+        <v>-11.3556867601014</v>
+      </c>
+      <c r="P45">
+        <v>-55.52114928289858</v>
+      </c>
+      <c r="Q45">
+        <v>-55.33914928289858</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1355322717551494</v>
+      </c>
+      <c r="T45">
+        <v>1.572008365568486</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.04333741862545962</v>
+      </c>
+      <c r="W45">
+        <v>0.1757389161985031</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.255226258100469</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1545651288657915</v>
+      </c>
+      <c r="C46">
+        <v>73.92289305261181</v>
+      </c>
+      <c r="D46">
+        <v>573.7050130526118</v>
+      </c>
+      <c r="E46">
+        <v>499.40712</v>
+      </c>
+      <c r="F46">
+        <v>500.18012</v>
+      </c>
+      <c r="G46">
+        <v>0.398</v>
+      </c>
+      <c r="H46">
+        <v>1136</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>23.1</v>
+      </c>
+      <c r="K46">
+        <v>0.182</v>
+      </c>
+      <c r="L46">
+        <v>22.918</v>
+      </c>
+      <c r="M46">
+        <v>91.883088044</v>
+      </c>
+      <c r="N46">
+        <v>-68.965088044</v>
+      </c>
+      <c r="O46">
+        <v>-11.7102719498712</v>
+      </c>
+      <c r="P46">
+        <v>-57.2548160941288</v>
+      </c>
+      <c r="Q46">
+        <v>-57.0728160941288</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1377864194650628</v>
+      </c>
+      <c r="T46">
+        <v>1.600079943525066</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.0423524772930628</v>
+      </c>
+      <c r="W46">
+        <v>0.1759198499212644</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.2494256613254583</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1563091288657915</v>
+      </c>
+      <c r="C47">
+        <v>55.74918065897981</v>
+      </c>
+      <c r="D47">
+        <v>566.8990306589798</v>
+      </c>
+      <c r="E47">
+        <v>510.77485</v>
+      </c>
+      <c r="F47">
+        <v>511.54785</v>
+      </c>
+      <c r="G47">
+        <v>0.398</v>
+      </c>
+      <c r="H47">
+        <v>1136</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>23.1</v>
+      </c>
+      <c r="K47">
+        <v>0.182</v>
+      </c>
+      <c r="L47">
+        <v>22.918</v>
+      </c>
+      <c r="M47">
+        <v>93.97134004499999</v>
+      </c>
+      <c r="N47">
+        <v>-71.05334004499998</v>
+      </c>
+      <c r="O47">
+        <v>-12.064857139641</v>
+      </c>
+      <c r="P47">
+        <v>-58.98848290535899</v>
+      </c>
+      <c r="Q47">
+        <v>-58.80648290535898</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1401225361826094</v>
+      </c>
+      <c r="T47">
+        <v>1.629172306134612</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.04141131113099475</v>
+      </c>
+      <c r="W47">
+        <v>0.1760927421452363</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.2438828688515592</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1580531288657915</v>
+      </c>
+      <c r="C48">
+        <v>37.73505661666513</v>
+      </c>
+      <c r="D48">
+        <v>560.2526366166651</v>
+      </c>
+      <c r="E48">
+        <v>522.14258</v>
+      </c>
+      <c r="F48">
+        <v>522.91558</v>
+      </c>
+      <c r="G48">
+        <v>0.398</v>
+      </c>
+      <c r="H48">
+        <v>1136</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>23.1</v>
+      </c>
+      <c r="K48">
+        <v>0.182</v>
+      </c>
+      <c r="L48">
+        <v>22.918</v>
+      </c>
+      <c r="M48">
+        <v>96.05959204599999</v>
+      </c>
+      <c r="N48">
+        <v>-73.14159204599999</v>
+      </c>
+      <c r="O48">
+        <v>-12.4194423294108</v>
+      </c>
+      <c r="P48">
+        <v>-60.72214971658919</v>
+      </c>
+      <c r="Q48">
+        <v>-60.54014971658918</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1425451757415466</v>
+      </c>
+      <c r="T48">
+        <v>1.659342163655624</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.04051106523684268</v>
+      </c>
+      <c r="W48">
+        <v>0.176258117315992</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.2385810673547861</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1597971288657915</v>
+      </c>
+      <c r="C49">
+        <v>19.87497287129361</v>
+      </c>
+      <c r="D49">
+        <v>553.7602828712936</v>
+      </c>
+      <c r="E49">
+        <v>533.51031</v>
+      </c>
+      <c r="F49">
+        <v>534.28331</v>
+      </c>
+      <c r="G49">
+        <v>0.398</v>
+      </c>
+      <c r="H49">
+        <v>1136</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>23.1</v>
+      </c>
+      <c r="K49">
+        <v>0.182</v>
+      </c>
+      <c r="L49">
+        <v>22.918</v>
+      </c>
+      <c r="M49">
+        <v>98.14784404700001</v>
+      </c>
+      <c r="N49">
+        <v>-75.229844047</v>
+      </c>
+      <c r="O49">
+        <v>-12.7740275191806</v>
+      </c>
+      <c r="P49">
+        <v>-62.4558165278194</v>
+      </c>
+      <c r="Q49">
+        <v>-62.2738165278194</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1450592356611984</v>
+      </c>
+      <c r="T49">
+        <v>1.690650506366107</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.03964912767861199</v>
+      </c>
+      <c r="W49">
+        <v>0.176416455245439</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.2335048744323439</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1615411288657915</v>
+      </c>
+      <c r="C50">
+        <v>2.163635591693946</v>
+      </c>
+      <c r="D50">
+        <v>547.4166755916939</v>
+      </c>
+      <c r="E50">
+        <v>544.8780399999999</v>
+      </c>
+      <c r="F50">
+        <v>545.65104</v>
+      </c>
+      <c r="G50">
+        <v>0.398</v>
+      </c>
+      <c r="H50">
+        <v>1136</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>23.1</v>
+      </c>
+      <c r="K50">
+        <v>0.182</v>
+      </c>
+      <c r="L50">
+        <v>22.918</v>
+      </c>
+      <c r="M50">
+        <v>100.236096048</v>
+      </c>
+      <c r="N50">
+        <v>-77.31809604799999</v>
+      </c>
+      <c r="O50">
+        <v>-13.1286127089504</v>
+      </c>
+      <c r="P50">
+        <v>-64.18948333904959</v>
+      </c>
+      <c r="Q50">
+        <v>-64.00748333904959</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1476699901931445</v>
+      </c>
+      <c r="T50">
+        <v>1.723163016103917</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.03882310418530757</v>
+      </c>
+      <c r="W50">
+        <v>0.176568195761159</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.2286401895483368</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1632851288657915</v>
+      </c>
+      <c r="C51">
+        <v>-15.40400922647007</v>
+      </c>
+      <c r="D51">
+        <v>541.2167607735298</v>
+      </c>
+      <c r="E51">
+        <v>556.2457699999999</v>
+      </c>
+      <c r="F51">
+        <v>557.0187699999999</v>
+      </c>
+      <c r="G51">
+        <v>0.398</v>
+      </c>
+      <c r="H51">
+        <v>1136</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>23.1</v>
+      </c>
+      <c r="K51">
+        <v>0.182</v>
+      </c>
+      <c r="L51">
+        <v>22.918</v>
+      </c>
+      <c r="M51">
+        <v>102.324348049</v>
+      </c>
+      <c r="N51">
+        <v>-79.40634804899997</v>
+      </c>
+      <c r="O51">
+        <v>-13.4831978987202</v>
+      </c>
+      <c r="P51">
+        <v>-65.92315015027978</v>
+      </c>
+      <c r="Q51">
+        <v>-65.74115015027978</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1503831272557552</v>
+      </c>
+      <c r="T51">
+        <v>1.756950526223601</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.03803079593662784</v>
+      </c>
+      <c r="W51">
+        <v>0.1767137427864415</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.2239740632310238</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1650291288657915</v>
+      </c>
+      <c r="C52">
+        <v>-32.83278918972053</v>
+      </c>
+      <c r="D52">
+        <v>535.1557108102794</v>
+      </c>
+      <c r="E52">
+        <v>567.6134999999999</v>
+      </c>
+      <c r="F52">
+        <v>568.3865</v>
+      </c>
+      <c r="G52">
+        <v>0.398</v>
+      </c>
+      <c r="H52">
+        <v>1136</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>23.1</v>
+      </c>
+      <c r="K52">
+        <v>0.182</v>
+      </c>
+      <c r="L52">
+        <v>22.918</v>
+      </c>
+      <c r="M52">
+        <v>104.41260005</v>
+      </c>
+      <c r="N52">
+        <v>-81.49460004999999</v>
+      </c>
+      <c r="O52">
+        <v>-13.83778308849</v>
+      </c>
+      <c r="P52">
+        <v>-67.65681696150999</v>
+      </c>
+      <c r="Q52">
+        <v>-67.47481696150999</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1532047898008703</v>
+      </c>
+      <c r="T52">
+        <v>1.792089536748074</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.03727018001789527</v>
+      </c>
+      <c r="W52">
+        <v>0.1768534679307126</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.2194945819664033</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1667731288657915</v>
+      </c>
+      <c r="C53">
+        <v>-50.12731804343832</v>
+      </c>
+      <c r="D53">
+        <v>529.2289119565617</v>
+      </c>
+      <c r="E53">
+        <v>578.98123</v>
+      </c>
+      <c r="F53">
+        <v>579.75423</v>
+      </c>
+      <c r="G53">
+        <v>0.398</v>
+      </c>
+      <c r="H53">
+        <v>1136</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>23.1</v>
+      </c>
+      <c r="K53">
+        <v>0.182</v>
+      </c>
+      <c r="L53">
+        <v>22.918</v>
+      </c>
+      <c r="M53">
+        <v>106.500852051</v>
+      </c>
+      <c r="N53">
+        <v>-83.58285205099999</v>
+      </c>
+      <c r="O53">
+        <v>-14.1923682782598</v>
+      </c>
+      <c r="P53">
+        <v>-69.3904837727402</v>
+      </c>
+      <c r="Q53">
+        <v>-69.20848377274019</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.156141622245786</v>
+      </c>
+      <c r="T53">
+        <v>1.828662792600075</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.03653939217440712</v>
+      </c>
+      <c r="W53">
+        <v>0.1769877136575614</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.2151907666337287</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1685171288657915</v>
+      </c>
+      <c r="C54">
+        <v>-67.29200738460474</v>
+      </c>
+      <c r="D54">
+        <v>523.4319526153952</v>
+      </c>
+      <c r="E54">
+        <v>590.3489599999999</v>
+      </c>
+      <c r="F54">
+        <v>591.1219599999999</v>
+      </c>
+      <c r="G54">
+        <v>0.398</v>
+      </c>
+      <c r="H54">
+        <v>1136</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>23.1</v>
+      </c>
+      <c r="K54">
+        <v>0.182</v>
+      </c>
+      <c r="L54">
+        <v>22.918</v>
+      </c>
+      <c r="M54">
+        <v>108.589104052</v>
+      </c>
+      <c r="N54">
+        <v>-85.67110405199999</v>
+      </c>
+      <c r="O54">
+        <v>-14.5469534680296</v>
+      </c>
+      <c r="P54">
+        <v>-71.12415058397039</v>
+      </c>
+      <c r="Q54">
+        <v>-70.94215058397039</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1592008227092399</v>
+      </c>
+      <c r="T54">
+        <v>1.866759934112577</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.03583671155566853</v>
+      </c>
+      <c r="W54">
+        <v>0.1771167960872237</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.2110524826600031</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1702611288657915</v>
+      </c>
+      <c r="C55">
+        <v>-84.33107761310441</v>
+      </c>
+      <c r="D55">
+        <v>517.7606123868956</v>
+      </c>
+      <c r="E55">
+        <v>601.71669</v>
+      </c>
+      <c r="F55">
+        <v>602.48969</v>
+      </c>
+      <c r="G55">
+        <v>0.398</v>
+      </c>
+      <c r="H55">
+        <v>1136</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>23.1</v>
+      </c>
+      <c r="K55">
+        <v>0.182</v>
+      </c>
+      <c r="L55">
+        <v>22.918</v>
+      </c>
+      <c r="M55">
+        <v>110.677356053</v>
+      </c>
+      <c r="N55">
+        <v>-87.75935605299999</v>
+      </c>
+      <c r="O55">
+        <v>-14.9015386577994</v>
+      </c>
+      <c r="P55">
+        <v>-72.85781739520058</v>
+      </c>
+      <c r="Q55">
+        <v>-72.67581739520058</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1623902019158195</v>
+      </c>
+      <c r="T55">
+        <v>1.906478230583057</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.03516054718669365</v>
+      </c>
+      <c r="W55">
+        <v>0.1772410074818044</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.2070703603456635</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1720051288657915</v>
+      </c>
+      <c r="C56">
+        <v>-101.2485681787198</v>
+      </c>
+      <c r="D56">
+        <v>512.2108518212802</v>
+      </c>
+      <c r="E56">
+        <v>613.08442</v>
+      </c>
+      <c r="F56">
+        <v>613.85742</v>
+      </c>
+      <c r="G56">
+        <v>0.398</v>
+      </c>
+      <c r="H56">
+        <v>1136</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>23.1</v>
+      </c>
+      <c r="K56">
+        <v>0.182</v>
+      </c>
+      <c r="L56">
+        <v>22.918</v>
+      </c>
+      <c r="M56">
+        <v>112.765608054</v>
+      </c>
+      <c r="N56">
+        <v>-89.84760805400001</v>
+      </c>
+      <c r="O56">
+        <v>-15.2561238475692</v>
+      </c>
+      <c r="P56">
+        <v>-74.59148420643081</v>
+      </c>
+      <c r="Q56">
+        <v>-74.4094842064308</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1657182497835547</v>
+      </c>
+      <c r="T56">
+        <v>1.947923409508776</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.03450942594249562</v>
+      </c>
+      <c r="W56">
+        <v>0.1773606184543635</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.203235724042966</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1737491288657915</v>
+      </c>
+      <c r="C57">
+        <v>-118.0483471761049</v>
+      </c>
+      <c r="D57">
+        <v>506.778802823895</v>
+      </c>
+      <c r="E57">
+        <v>624.45215</v>
+      </c>
+      <c r="F57">
+        <v>625.22515</v>
+      </c>
+      <c r="G57">
+        <v>0.398</v>
+      </c>
+      <c r="H57">
+        <v>1136</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>23.1</v>
+      </c>
+      <c r="K57">
+        <v>0.182</v>
+      </c>
+      <c r="L57">
+        <v>22.918</v>
+      </c>
+      <c r="M57">
+        <v>114.853860055</v>
+      </c>
+      <c r="N57">
+        <v>-91.93586005499999</v>
+      </c>
+      <c r="O57">
+        <v>-15.610709037339</v>
+      </c>
+      <c r="P57">
+        <v>-76.325151017661</v>
+      </c>
+      <c r="Q57">
+        <v>-76.143151017661</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1691942108898559</v>
+      </c>
+      <c r="T57">
+        <v>1.991210596386749</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.03388198183445024</v>
+      </c>
+      <c r="W57">
+        <v>0.1774758799370115</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.1995405290603666</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1754931288657915</v>
+      </c>
+      <c r="C58">
+        <v>-134.7341203356306</v>
+      </c>
+      <c r="D58">
+        <v>501.4607596643694</v>
+      </c>
+      <c r="E58">
+        <v>635.81988</v>
+      </c>
+      <c r="F58">
+        <v>636.59288</v>
+      </c>
+      <c r="G58">
+        <v>0.398</v>
+      </c>
+      <c r="H58">
+        <v>1136</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>23.1</v>
+      </c>
+      <c r="K58">
+        <v>0.182</v>
+      </c>
+      <c r="L58">
+        <v>22.918</v>
+      </c>
+      <c r="M58">
+        <v>116.942112056</v>
+      </c>
+      <c r="N58">
+        <v>-94.02411205600001</v>
+      </c>
+      <c r="O58">
+        <v>-15.9652942271088</v>
+      </c>
+      <c r="P58">
+        <v>-78.05881782889121</v>
+      </c>
+      <c r="Q58">
+        <v>-77.87681782889121</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1728281702282617</v>
+      </c>
+      <c r="T58">
+        <v>2.036465382668266</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.03327694644454934</v>
+      </c>
+      <c r="W58">
+        <v>0.1775870249381363</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.1959773053271457</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1772371288657915</v>
+      </c>
+      <c r="C59">
+        <v>-151.3094394540176</v>
+      </c>
+      <c r="D59">
+        <v>496.2531705459824</v>
+      </c>
+      <c r="E59">
+        <v>647.1876099999999</v>
+      </c>
+      <c r="F59">
+        <v>647.96061</v>
+      </c>
+      <c r="G59">
+        <v>0.398</v>
+      </c>
+      <c r="H59">
+        <v>1136</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>23.1</v>
+      </c>
+      <c r="K59">
+        <v>0.182</v>
+      </c>
+      <c r="L59">
+        <v>22.918</v>
+      </c>
+      <c r="M59">
+        <v>119.030364057</v>
+      </c>
+      <c r="N59">
+        <v>-96.11236405699999</v>
+      </c>
+      <c r="O59">
+        <v>-16.3198794168786</v>
+      </c>
+      <c r="P59">
+        <v>-79.79248464012139</v>
+      </c>
+      <c r="Q59">
+        <v>-79.61048464012138</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1766311509312446</v>
+      </c>
+      <c r="T59">
+        <v>2.083825042730318</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.03269314036657479</v>
+      </c>
+      <c r="W59">
+        <v>0.1776942701146602</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.1925391069880731</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1789811288657915</v>
+      </c>
+      <c r="C60">
+        <v>-167.7777103050672</v>
+      </c>
+      <c r="D60">
+        <v>491.1526296949327</v>
+      </c>
+      <c r="E60">
+        <v>658.5553399999999</v>
+      </c>
+      <c r="F60">
+        <v>659.3283399999999</v>
+      </c>
+      <c r="G60">
+        <v>0.398</v>
+      </c>
+      <c r="H60">
+        <v>1136</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>23.1</v>
+      </c>
+      <c r="K60">
+        <v>0.182</v>
+      </c>
+      <c r="L60">
+        <v>22.918</v>
+      </c>
+      <c r="M60">
+        <v>121.118616058</v>
+      </c>
+      <c r="N60">
+        <v>-98.20061605799998</v>
+      </c>
+      <c r="O60">
+        <v>-16.6744646066484</v>
+      </c>
+      <c r="P60">
+        <v>-81.52615145135158</v>
+      </c>
+      <c r="Q60">
+        <v>-81.34415145135158</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.180615225953417</v>
+      </c>
+      <c r="T60">
+        <v>2.133439924700088</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.03212946553266834</v>
+      </c>
+      <c r="W60">
+        <v>0.1777978171816488</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.1892194672124167</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1807251288657915</v>
+      </c>
+      <c r="C61">
+        <v>-184.142200067509</v>
+      </c>
+      <c r="D61">
+        <v>486.155869932491</v>
+      </c>
+      <c r="E61">
+        <v>669.9230699999999</v>
+      </c>
+      <c r="F61">
+        <v>670.69607</v>
+      </c>
+      <c r="G61">
+        <v>0.398</v>
+      </c>
+      <c r="H61">
+        <v>1136</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>23.1</v>
+      </c>
+      <c r="K61">
+        <v>0.182</v>
+      </c>
+      <c r="L61">
+        <v>22.918</v>
+      </c>
+      <c r="M61">
+        <v>123.206868059</v>
+      </c>
+      <c r="N61">
+        <v>-100.288868059</v>
+      </c>
+      <c r="O61">
+        <v>-17.0290497964182</v>
+      </c>
+      <c r="P61">
+        <v>-83.2598182625818</v>
+      </c>
+      <c r="Q61">
+        <v>-83.0778182625818</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1847936460986223</v>
+      </c>
+      <c r="T61">
+        <v>2.185475044814724</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.03158489832025023</v>
+      </c>
+      <c r="W61">
+        <v>0.17789785417857</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.1860123575986469</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1824691288657915</v>
+      </c>
+      <c r="C62">
+        <v>-200.4060443040098</v>
+      </c>
+      <c r="D62">
+        <v>481.2597556959901</v>
+      </c>
+      <c r="E62">
+        <v>681.2907999999999</v>
+      </c>
+      <c r="F62">
+        <v>682.0637999999999</v>
+      </c>
+      <c r="G62">
+        <v>0.398</v>
+      </c>
+      <c r="H62">
+        <v>1136</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>23.1</v>
+      </c>
+      <c r="K62">
+        <v>0.182</v>
+      </c>
+      <c r="L62">
+        <v>22.918</v>
+      </c>
+      <c r="M62">
+        <v>125.29512006</v>
+      </c>
+      <c r="N62">
+        <v>-102.37712006</v>
+      </c>
+      <c r="O62">
+        <v>-17.383634986188</v>
+      </c>
+      <c r="P62">
+        <v>-84.99348507381198</v>
+      </c>
+      <c r="Q62">
+        <v>-84.81148507381198</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1891809872510879</v>
+      </c>
+      <c r="T62">
+        <v>2.240111920935092</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.03105848334824606</v>
+      </c>
+      <c r="W62">
+        <v>0.1779945566089272</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.1829121516386694</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1842131288657915</v>
+      </c>
+      <c r="C63">
+        <v>-216.5722535226727</v>
+      </c>
+      <c r="D63">
+        <v>476.4612764773272</v>
+      </c>
+      <c r="E63">
+        <v>692.6585299999999</v>
+      </c>
+      <c r="F63">
+        <v>693.43153</v>
+      </c>
+      <c r="G63">
+        <v>0.398</v>
+      </c>
+      <c r="H63">
+        <v>1136</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>23.1</v>
+      </c>
+      <c r="K63">
+        <v>0.182</v>
+      </c>
+      <c r="L63">
+        <v>22.918</v>
+      </c>
+      <c r="M63">
+        <v>127.383372061</v>
+      </c>
+      <c r="N63">
+        <v>-104.465372061</v>
+      </c>
+      <c r="O63">
+        <v>-17.7382201759578</v>
+      </c>
+      <c r="P63">
+        <v>-86.72715188504219</v>
+      </c>
+      <c r="Q63">
+        <v>-86.54515188504219</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.193793320257526</v>
+      </c>
+      <c r="T63">
+        <v>2.297550688138556</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.03054932788352072</v>
+      </c>
+      <c r="W63">
+        <v>0.1780880884677973</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.1799135917757404</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1859571288657915</v>
+      </c>
+      <c r="C64">
+        <v>-232.6437193498735</v>
+      </c>
+      <c r="D64">
+        <v>471.7575406501264</v>
+      </c>
+      <c r="E64">
+        <v>704.0262599999999</v>
+      </c>
+      <c r="F64">
+        <v>704.7992599999999</v>
+      </c>
+      <c r="G64">
+        <v>0.398</v>
+      </c>
+      <c r="H64">
+        <v>1136</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>23.1</v>
+      </c>
+      <c r="K64">
+        <v>0.182</v>
+      </c>
+      <c r="L64">
+        <v>22.918</v>
+      </c>
+      <c r="M64">
+        <v>129.471624062</v>
+      </c>
+      <c r="N64">
+        <v>-106.553624062</v>
+      </c>
+      <c r="O64">
+        <v>-18.0928053657276</v>
+      </c>
+      <c r="P64">
+        <v>-88.46081869627238</v>
+      </c>
+      <c r="Q64">
+        <v>-88.27881869627238</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1986484076327241</v>
+      </c>
+      <c r="T64">
+        <v>2.358012548352728</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.03005659678862522</v>
+      </c>
+      <c r="W64">
+        <v>0.1781786031699295</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.1770117596503252</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1877011288657915</v>
+      </c>
+      <c r="C65">
+        <v>-248.6232203410356</v>
+      </c>
+      <c r="D65">
+        <v>467.1457696589643</v>
+      </c>
+      <c r="E65">
+        <v>715.3939899999999</v>
+      </c>
+      <c r="F65">
+        <v>716.1669899999999</v>
+      </c>
+      <c r="G65">
+        <v>0.398</v>
+      </c>
+      <c r="H65">
+        <v>1136</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>23.1</v>
+      </c>
+      <c r="K65">
+        <v>0.182</v>
+      </c>
+      <c r="L65">
+        <v>22.918</v>
+      </c>
+      <c r="M65">
+        <v>131.559876063</v>
+      </c>
+      <c r="N65">
+        <v>-108.641876063</v>
+      </c>
+      <c r="O65">
+        <v>-18.4473905554974</v>
+      </c>
+      <c r="P65">
+        <v>-90.19448550750258</v>
+      </c>
+      <c r="Q65">
+        <v>-90.01248550750257</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2037659321633382</v>
+      </c>
+      <c r="T65">
+        <v>2.421742617227126</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.02957950795071054</v>
+      </c>
+      <c r="W65">
+        <v>0.1782662443894545</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.1742020491796852</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1894451288657915</v>
+      </c>
+      <c r="C66">
+        <v>-264.5134274538761</v>
+      </c>
+      <c r="D66">
+        <v>462.6232925461239</v>
+      </c>
+      <c r="E66">
+        <v>726.76172</v>
+      </c>
+      <c r="F66">
+        <v>727.53472</v>
+      </c>
+      <c r="G66">
+        <v>0.398</v>
+      </c>
+      <c r="H66">
+        <v>1136</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>23.1</v>
+      </c>
+      <c r="K66">
+        <v>0.182</v>
+      </c>
+      <c r="L66">
+        <v>22.918</v>
+      </c>
+      <c r="M66">
+        <v>133.648128064</v>
+      </c>
+      <c r="N66">
+        <v>-110.730128064</v>
+      </c>
+      <c r="O66">
+        <v>-18.8019757452672</v>
+      </c>
+      <c r="P66">
+        <v>-91.92815231873278</v>
+      </c>
+      <c r="Q66">
+        <v>-91.74615231873278</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2091677636123199</v>
+      </c>
+      <c r="T66">
+        <v>2.489013245483436</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.02911732813898068</v>
+      </c>
+      <c r="W66">
+        <v>0.1783511468208692</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.1714801421612525</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1911891288657915</v>
+      </c>
+      <c r="C67">
+        <v>-280.3169092067791</v>
+      </c>
+      <c r="D67">
+        <v>458.1875407932208</v>
+      </c>
+      <c r="E67">
+        <v>738.1294499999999</v>
+      </c>
+      <c r="F67">
+        <v>738.9024499999999</v>
+      </c>
+      <c r="G67">
+        <v>0.398</v>
+      </c>
+      <c r="H67">
+        <v>1136</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>23.1</v>
+      </c>
+      <c r="K67">
+        <v>0.182</v>
+      </c>
+      <c r="L67">
+        <v>22.918</v>
+      </c>
+      <c r="M67">
+        <v>135.736380065</v>
+      </c>
+      <c r="N67">
+        <v>-112.818380065</v>
+      </c>
+      <c r="O67">
+        <v>-19.156560935037</v>
+      </c>
+      <c r="P67">
+        <v>-93.66181912996299</v>
+      </c>
+      <c r="Q67">
+        <v>-93.47981912996299</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2148782711441005</v>
+      </c>
+      <c r="T67">
+        <v>2.560127909640106</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.02866936924453483</v>
+      </c>
+      <c r="W67">
+        <v>0.178433436869779</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.1688419861280025</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1929331288657914</v>
+      </c>
+      <c r="C68">
+        <v>-296.0361365432286</v>
+      </c>
+      <c r="D68">
+        <v>453.8360434567714</v>
+      </c>
+      <c r="E68">
+        <v>749.49718</v>
+      </c>
+      <c r="F68">
+        <v>750.27018</v>
+      </c>
+      <c r="G68">
+        <v>0.398</v>
+      </c>
+      <c r="H68">
+        <v>1136</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>23.1</v>
+      </c>
+      <c r="K68">
+        <v>0.182</v>
+      </c>
+      <c r="L68">
+        <v>22.918</v>
+      </c>
+      <c r="M68">
+        <v>137.824632066</v>
+      </c>
+      <c r="N68">
+        <v>-114.906632066</v>
+      </c>
+      <c r="O68">
+        <v>-19.5111461248068</v>
+      </c>
+      <c r="P68">
+        <v>-95.39548594119319</v>
+      </c>
+      <c r="Q68">
+        <v>-95.21348594119318</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2209246908836328</v>
+      </c>
+      <c r="T68">
+        <v>2.635425789335403</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.02823498486204187</v>
+      </c>
+      <c r="W68">
+        <v>0.1785132332808429</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.1662837742169722</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1946771288657915</v>
+      </c>
+      <c r="C69">
+        <v>-311.6734874216577</v>
+      </c>
+      <c r="D69">
+        <v>449.5664225783423</v>
+      </c>
+      <c r="E69">
+        <v>760.86491</v>
+      </c>
+      <c r="F69">
+        <v>761.63791</v>
+      </c>
+      <c r="G69">
+        <v>0.398</v>
+      </c>
+      <c r="H69">
+        <v>1136</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>23.1</v>
+      </c>
+      <c r="K69">
+        <v>0.182</v>
+      </c>
+      <c r="L69">
+        <v>22.918</v>
+      </c>
+      <c r="M69">
+        <v>139.912884067</v>
+      </c>
+      <c r="N69">
+        <v>-116.994884067</v>
+      </c>
+      <c r="O69">
+        <v>-19.8657313145766</v>
+      </c>
+      <c r="P69">
+        <v>-97.12915275242341</v>
+      </c>
+      <c r="Q69">
+        <v>-96.94715275242341</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.227337560304349</v>
+      </c>
+      <c r="T69">
+        <v>2.715287176891021</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.02781356717753378</v>
+      </c>
+      <c r="W69">
+        <v>0.178590647709487</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.1638019268405995</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1964211288657915</v>
+      </c>
+      <c r="C70">
+        <v>-327.2312511486291</v>
+      </c>
+      <c r="D70">
+        <v>445.3763888513708</v>
+      </c>
+      <c r="E70">
+        <v>772.2326399999999</v>
+      </c>
+      <c r="F70">
+        <v>773.00564</v>
+      </c>
+      <c r="G70">
+        <v>0.398</v>
+      </c>
+      <c r="H70">
+        <v>1136</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>23.1</v>
+      </c>
+      <c r="K70">
+        <v>0.182</v>
+      </c>
+      <c r="L70">
+        <v>22.918</v>
+      </c>
+      <c r="M70">
+        <v>142.001136068</v>
+      </c>
+      <c r="N70">
+        <v>-119.083136068</v>
+      </c>
+      <c r="O70">
+        <v>-20.2203165043464</v>
+      </c>
+      <c r="P70">
+        <v>-98.86281956365359</v>
+      </c>
+      <c r="Q70">
+        <v>-98.68081956365359</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2341512340638599</v>
+      </c>
+      <c r="T70">
+        <v>2.800139901168865</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.02740454413080535</v>
+      </c>
+      <c r="W70">
+        <v>0.1786657852431711</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.1613930749752965</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1981651288657915</v>
+      </c>
+      <c r="C71">
+        <v>-342.7116324719378</v>
+      </c>
+      <c r="D71">
+        <v>441.2637375280622</v>
+      </c>
+      <c r="E71">
+        <v>783.60037</v>
+      </c>
+      <c r="F71">
+        <v>784.37337</v>
+      </c>
+      <c r="G71">
+        <v>0.398</v>
+      </c>
+      <c r="H71">
+        <v>1136</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>23.1</v>
+      </c>
+      <c r="K71">
+        <v>0.182</v>
+      </c>
+      <c r="L71">
+        <v>22.918</v>
+      </c>
+      <c r="M71">
+        <v>144.089388069</v>
+      </c>
+      <c r="N71">
+        <v>-121.171388069</v>
+      </c>
+      <c r="O71">
+        <v>-20.5749016941162</v>
+      </c>
+      <c r="P71">
+        <v>-100.5964863748838</v>
+      </c>
+      <c r="Q71">
+        <v>-100.4144863748838</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2414044996788231</v>
+      </c>
+      <c r="T71">
+        <v>2.890466994754958</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.02700737682456179</v>
+      </c>
+      <c r="W71">
+        <v>0.178738744877328</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.1590540449031907</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1999091288657915</v>
+      </c>
+      <c r="C72">
+        <v>-358.1167554490119</v>
+      </c>
+      <c r="D72">
+        <v>437.2263445509881</v>
+      </c>
+      <c r="E72">
+        <v>794.9680999999999</v>
+      </c>
+      <c r="F72">
+        <v>795.7411</v>
+      </c>
+      <c r="G72">
+        <v>0.398</v>
+      </c>
+      <c r="H72">
+        <v>1136</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>23.1</v>
+      </c>
+      <c r="K72">
+        <v>0.182</v>
+      </c>
+      <c r="L72">
+        <v>22.918</v>
+      </c>
+      <c r="M72">
+        <v>146.17764007</v>
+      </c>
+      <c r="N72">
+        <v>-123.25964007</v>
+      </c>
+      <c r="O72">
+        <v>-20.929486883886</v>
+      </c>
+      <c r="P72">
+        <v>-102.330153186114</v>
+      </c>
+      <c r="Q72">
+        <v>-102.148153186114</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2491413163347839</v>
+      </c>
+      <c r="T72">
+        <v>2.986815894580123</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.02662155715563948</v>
+      </c>
+      <c r="W72">
+        <v>0.178809619950509</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.1567818442617166</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.2016531288657915</v>
+      </c>
+      <c r="C73">
+        <v>-373.4486671048712</v>
+      </c>
+      <c r="D73">
+        <v>433.2621628951287</v>
+      </c>
+      <c r="E73">
+        <v>806.3358299999999</v>
+      </c>
+      <c r="F73">
+        <v>807.1088299999999</v>
+      </c>
+      <c r="G73">
+        <v>0.398</v>
+      </c>
+      <c r="H73">
+        <v>1136</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>23.1</v>
+      </c>
+      <c r="K73">
+        <v>0.182</v>
+      </c>
+      <c r="L73">
+        <v>22.918</v>
+      </c>
+      <c r="M73">
+        <v>148.265892071</v>
+      </c>
+      <c r="N73">
+        <v>-125.347892071</v>
+      </c>
+      <c r="O73">
+        <v>-21.2840720736558</v>
+      </c>
+      <c r="P73">
+        <v>-104.0638199973442</v>
+      </c>
+      <c r="Q73">
+        <v>-103.8818199973442</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2574117065532247</v>
+      </c>
+      <c r="T73">
+        <v>3.089809546117368</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.02624660564640512</v>
+      </c>
+      <c r="W73">
+        <v>0.1788784985427554</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.154573649272115</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2033971288657914</v>
+      </c>
+      <c r="C74">
+        <v>-388.7093408928835</v>
+      </c>
+      <c r="D74">
+        <v>429.3692191071165</v>
+      </c>
+      <c r="E74">
+        <v>817.7035599999999</v>
+      </c>
+      <c r="F74">
+        <v>818.4765599999999</v>
+      </c>
+      <c r="G74">
+        <v>0.398</v>
+      </c>
+      <c r="H74">
+        <v>1136</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>23.1</v>
+      </c>
+      <c r="K74">
+        <v>0.182</v>
+      </c>
+      <c r="L74">
+        <v>22.918</v>
+      </c>
+      <c r="M74">
+        <v>150.354144072</v>
+      </c>
+      <c r="N74">
+        <v>-127.436144072</v>
+      </c>
+      <c r="O74">
+        <v>-21.6386572634256</v>
+      </c>
+      <c r="P74">
+        <v>-105.7974868085744</v>
+      </c>
+      <c r="Q74">
+        <v>-105.6154868085744</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2662728389301255</v>
+      </c>
+      <c r="T74">
+        <v>3.200159887050131</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.02588206945687172</v>
+      </c>
+      <c r="W74">
+        <v>0.1789454638407726</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.1524267930322245</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.2051411288657914</v>
+      </c>
+      <c r="C75">
+        <v>-403.9006799706067</v>
+      </c>
+      <c r="D75">
+        <v>425.5456100293932</v>
+      </c>
+      <c r="E75">
+        <v>829.0712899999999</v>
+      </c>
+      <c r="F75">
+        <v>829.8442899999999</v>
+      </c>
+      <c r="G75">
+        <v>0.398</v>
+      </c>
+      <c r="H75">
+        <v>1136</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>23.1</v>
+      </c>
+      <c r="K75">
+        <v>0.182</v>
+      </c>
+      <c r="L75">
+        <v>22.918</v>
+      </c>
+      <c r="M75">
+        <v>152.442396073</v>
+      </c>
+      <c r="N75">
+        <v>-129.524396073</v>
+      </c>
+      <c r="O75">
+        <v>-21.9932424531954</v>
+      </c>
+      <c r="P75">
+        <v>-107.5311536198046</v>
+      </c>
+      <c r="Q75">
+        <v>-107.3491536198046</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2757903514830931</v>
+      </c>
+      <c r="T75">
+        <v>3.318684327311247</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.02552752056020225</v>
+      </c>
+      <c r="W75">
+        <v>0.1790105944730908</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.1503387547715092</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.2068851288657915</v>
+      </c>
+      <c r="C76">
+        <v>-419.0245203021457</v>
+      </c>
+      <c r="D76">
+        <v>421.7894996978542</v>
+      </c>
+      <c r="E76">
+        <v>840.4390199999999</v>
+      </c>
+      <c r="F76">
+        <v>841.2120199999999</v>
+      </c>
+      <c r="G76">
+        <v>0.398</v>
+      </c>
+      <c r="H76">
+        <v>1136</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>23.1</v>
+      </c>
+      <c r="K76">
+        <v>0.182</v>
+      </c>
+      <c r="L76">
+        <v>22.918</v>
+      </c>
+      <c r="M76">
+        <v>154.530648074</v>
+      </c>
+      <c r="N76">
+        <v>-131.612648074</v>
+      </c>
+      <c r="O76">
+        <v>-22.3478276429652</v>
+      </c>
+      <c r="P76">
+        <v>-109.2648204310348</v>
+      </c>
+      <c r="Q76">
+        <v>-109.0828204310348</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.286039980386289</v>
+      </c>
+      <c r="T76">
+        <v>3.446326032207833</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.02518255406614545</v>
+      </c>
+      <c r="W76">
+        <v>0.1790739648180491</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.1483071499772995</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2086291288657915</v>
+      </c>
+      <c r="C77">
+        <v>-434.0826335976465</v>
+      </c>
+      <c r="D77">
+        <v>418.0991164023533</v>
+      </c>
+      <c r="E77">
+        <v>851.8067499999999</v>
+      </c>
+      <c r="F77">
+        <v>852.5797499999999</v>
+      </c>
+      <c r="G77">
+        <v>0.398</v>
+      </c>
+      <c r="H77">
+        <v>1136</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>23.1</v>
+      </c>
+      <c r="K77">
+        <v>0.182</v>
+      </c>
+      <c r="L77">
+        <v>22.918</v>
+      </c>
+      <c r="M77">
+        <v>156.618900075</v>
+      </c>
+      <c r="N77">
+        <v>-133.700900075</v>
+      </c>
+      <c r="O77">
+        <v>-22.702412832735</v>
+      </c>
+      <c r="P77">
+        <v>-110.998487242265</v>
+      </c>
+      <c r="Q77">
+        <v>-110.816487242265</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2971095796017406</v>
+      </c>
+      <c r="T77">
+        <v>3.584179073496148</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.02484678667859685</v>
+      </c>
+      <c r="W77">
+        <v>0.1791356452871418</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.1463297213109356</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2103731288657915</v>
+      </c>
+      <c r="C78">
+        <v>-449.0767300998179</v>
+      </c>
+      <c r="D78">
+        <v>414.472749900182</v>
+      </c>
+      <c r="E78">
+        <v>863.1744799999999</v>
+      </c>
+      <c r="F78">
+        <v>863.9474799999999</v>
+      </c>
+      <c r="G78">
+        <v>0.398</v>
+      </c>
+      <c r="H78">
+        <v>1136</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>23.1</v>
+      </c>
+      <c r="K78">
+        <v>0.182</v>
+      </c>
+      <c r="L78">
+        <v>22.918</v>
+      </c>
+      <c r="M78">
+        <v>158.707152076</v>
+      </c>
+      <c r="N78">
+        <v>-135.789152076</v>
+      </c>
+      <c r="O78">
+        <v>-23.0569980225048</v>
+      </c>
+      <c r="P78">
+        <v>-112.7321540534952</v>
+      </c>
+      <c r="Q78">
+        <v>-112.5501540534952</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.3091016454184798</v>
+      </c>
+      <c r="T78">
+        <v>3.733519868225153</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.0245198552749311</v>
+      </c>
+      <c r="W78">
+        <v>0.1791957025859952</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.1444043302410548</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2121171288657915</v>
+      </c>
+      <c r="C79">
+        <v>-464.0084612266865</v>
+      </c>
+      <c r="D79">
+        <v>410.9087487733134</v>
+      </c>
+      <c r="E79">
+        <v>874.54221</v>
+      </c>
+      <c r="F79">
+        <v>875.31521</v>
+      </c>
+      <c r="G79">
+        <v>0.398</v>
+      </c>
+      <c r="H79">
+        <v>1136</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>23.1</v>
+      </c>
+      <c r="K79">
+        <v>0.182</v>
+      </c>
+      <c r="L79">
+        <v>22.918</v>
+      </c>
+      <c r="M79">
+        <v>160.795404077</v>
+      </c>
+      <c r="N79">
+        <v>-137.877404077</v>
+      </c>
+      <c r="O79">
+        <v>-23.4115832122746</v>
+      </c>
+      <c r="P79">
+        <v>-114.4658208647254</v>
+      </c>
+      <c r="Q79">
+        <v>-114.2838208647254</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.3221364995671094</v>
+      </c>
+      <c r="T79">
+        <v>3.895846819017552</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.02420141559603589</v>
+      </c>
+      <c r="W79">
+        <v>0.1792541999550082</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.1425289493288333</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2138611288657915</v>
+      </c>
+      <c r="C80">
+        <v>-478.8794220791661</v>
+      </c>
+      <c r="D80">
+        <v>407.4055179208338</v>
+      </c>
+      <c r="E80">
+        <v>885.9099399999999</v>
+      </c>
+      <c r="F80">
+        <v>886.6829399999999</v>
+      </c>
+      <c r="G80">
+        <v>0.398</v>
+      </c>
+      <c r="H80">
+        <v>1136</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>23.1</v>
+      </c>
+      <c r="K80">
+        <v>0.182</v>
+      </c>
+      <c r="L80">
+        <v>22.918</v>
+      </c>
+      <c r="M80">
+        <v>162.883656078</v>
+      </c>
+      <c r="N80">
+        <v>-139.965656078</v>
+      </c>
+      <c r="O80">
+        <v>-23.7661684020444</v>
+      </c>
+      <c r="P80">
+        <v>-116.1994876759556</v>
+      </c>
+      <c r="Q80">
+        <v>-116.0174876759556</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.3363563404565234</v>
+      </c>
+      <c r="T80">
+        <v>4.072930765336531</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.02389114103711236</v>
+      </c>
+      <c r="W80">
+        <v>0.1793111973914825</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.1407016551066688</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2156051288657915</v>
+      </c>
+      <c r="C81">
+        <v>-493.6911538214405</v>
+      </c>
+      <c r="D81">
+        <v>403.9615161785595</v>
+      </c>
+      <c r="E81">
+        <v>897.2776699999999</v>
+      </c>
+      <c r="F81">
+        <v>898.05067</v>
+      </c>
+      <c r="G81">
+        <v>0.398</v>
+      </c>
+      <c r="H81">
+        <v>1136</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>23.1</v>
+      </c>
+      <c r="K81">
+        <v>0.182</v>
+      </c>
+      <c r="L81">
+        <v>22.918</v>
+      </c>
+      <c r="M81">
+        <v>164.971908079</v>
+      </c>
+      <c r="N81">
+        <v>-142.053908079</v>
+      </c>
+      <c r="O81">
+        <v>-24.1207535918142</v>
+      </c>
+      <c r="P81">
+        <v>-117.9331544871858</v>
+      </c>
+      <c r="Q81">
+        <v>-117.7511544871858</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.3519304519068341</v>
+      </c>
+      <c r="T81">
+        <v>4.266879849400176</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.02358872153031346</v>
+      </c>
+      <c r="W81">
+        <v>0.1793667518548814</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.1389206214977236</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2173491288657915</v>
+      </c>
+      <c r="C82">
+        <v>-508.445145941624</v>
+      </c>
+      <c r="D82">
+        <v>400.575254058376</v>
+      </c>
+      <c r="E82">
+        <v>908.6454</v>
+      </c>
+      <c r="F82">
+        <v>909.4184</v>
+      </c>
+      <c r="G82">
+        <v>0.398</v>
+      </c>
+      <c r="H82">
+        <v>1136</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>23.1</v>
+      </c>
+      <c r="K82">
+        <v>0.182</v>
+      </c>
+      <c r="L82">
+        <v>22.918</v>
+      </c>
+      <c r="M82">
+        <v>167.06016008</v>
+      </c>
+      <c r="N82">
+        <v>-144.14216008</v>
+      </c>
+      <c r="O82">
+        <v>-24.475338781584</v>
+      </c>
+      <c r="P82">
+        <v>-119.666821298416</v>
+      </c>
+      <c r="Q82">
+        <v>-119.484821298416</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.3690619745021758</v>
+      </c>
+      <c r="T82">
+        <v>4.480223841870185</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.02329386251118454</v>
+      </c>
+      <c r="W82">
+        <v>0.1794209174566954</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.1371841137290021</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2190931288657915</v>
+      </c>
+      <c r="C83">
+        <v>-523.1428383996638</v>
+      </c>
+      <c r="D83">
+        <v>397.2452916003362</v>
+      </c>
+      <c r="E83">
+        <v>920.0131299999999</v>
+      </c>
+      <c r="F83">
+        <v>920.78613</v>
+      </c>
+      <c r="G83">
+        <v>0.398</v>
+      </c>
+      <c r="H83">
+        <v>1136</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>23.1</v>
+      </c>
+      <c r="K83">
+        <v>0.182</v>
+      </c>
+      <c r="L83">
+        <v>22.918</v>
+      </c>
+      <c r="M83">
+        <v>169.148412081</v>
+      </c>
+      <c r="N83">
+        <v>-146.230412081</v>
+      </c>
+      <c r="O83">
+        <v>-24.8299239713538</v>
+      </c>
+      <c r="P83">
+        <v>-121.4004881096462</v>
+      </c>
+      <c r="Q83">
+        <v>-121.2184881096462</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3879968152654482</v>
+      </c>
+      <c r="T83">
+        <v>4.716025096705458</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.02300628396166375</v>
+      </c>
+      <c r="W83">
+        <v>0.1794737456362424</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.1354904826953106</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2208371288657915</v>
+      </c>
+      <c r="C84">
+        <v>-537.7856236689945</v>
+      </c>
+      <c r="D84">
+        <v>393.9702363310055</v>
+      </c>
+      <c r="E84">
+        <v>931.38086</v>
+      </c>
+      <c r="F84">
+        <v>932.15386</v>
+      </c>
+      <c r="G84">
+        <v>0.398</v>
+      </c>
+      <c r="H84">
+        <v>1136</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>23.1</v>
+      </c>
+      <c r="K84">
+        <v>0.182</v>
+      </c>
+      <c r="L84">
+        <v>22.918</v>
+      </c>
+      <c r="M84">
+        <v>171.236664082</v>
+      </c>
+      <c r="N84">
+        <v>-148.318664082</v>
+      </c>
+      <c r="O84">
+        <v>-25.1845091611236</v>
+      </c>
+      <c r="P84">
+        <v>-123.1341549208764</v>
+      </c>
+      <c r="Q84">
+        <v>-122.9521549208764</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.4090355272246398</v>
+      </c>
+      <c r="T84">
+        <v>4.978026490966872</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.02272571952310687</v>
+      </c>
+      <c r="W84">
+        <v>0.1795252853236053</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1338381597356118</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2225811288657915</v>
+      </c>
+      <c r="C85">
+        <v>-552.3748486780239</v>
+      </c>
+      <c r="D85">
+        <v>390.7487413219761</v>
+      </c>
+      <c r="E85">
+        <v>942.74859</v>
+      </c>
+      <c r="F85">
+        <v>943.5215900000001</v>
+      </c>
+      <c r="G85">
+        <v>0.398</v>
+      </c>
+      <c r="H85">
+        <v>1136</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>23.1</v>
+      </c>
+      <c r="K85">
+        <v>0.182</v>
+      </c>
+      <c r="L85">
+        <v>22.918</v>
+      </c>
+      <c r="M85">
+        <v>173.324916083</v>
+      </c>
+      <c r="N85">
+        <v>-150.406916083</v>
+      </c>
+      <c r="O85">
+        <v>-25.5390943508934</v>
+      </c>
+      <c r="P85">
+        <v>-124.8678217321066</v>
+      </c>
+      <c r="Q85">
+        <v>-124.6858217321066</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.4325493817672658</v>
+      </c>
+      <c r="T85">
+        <v>5.270851578670807</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.02245191567343088</v>
+      </c>
+      <c r="W85">
+        <v>0.1795755830907907</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.1322256517869899</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2243251288657915</v>
+      </c>
+      <c r="C86">
+        <v>-566.9118166571384</v>
+      </c>
+      <c r="D86">
+        <v>387.5795033428615</v>
+      </c>
+      <c r="E86">
+        <v>954.1163199999999</v>
+      </c>
+      <c r="F86">
+        <v>954.8893199999999</v>
+      </c>
+      <c r="G86">
+        <v>0.398</v>
+      </c>
+      <c r="H86">
+        <v>1136</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>23.1</v>
+      </c>
+      <c r="K86">
+        <v>0.182</v>
+      </c>
+      <c r="L86">
+        <v>22.918</v>
+      </c>
+      <c r="M86">
+        <v>175.413168084</v>
+      </c>
+      <c r="N86">
+        <v>-152.495168084</v>
+      </c>
+      <c r="O86">
+        <v>-25.8936795406632</v>
+      </c>
+      <c r="P86">
+        <v>-126.6014885433368</v>
+      </c>
+      <c r="Q86">
+        <v>-126.4194885433368</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.4590024681277196</v>
+      </c>
+      <c r="T86">
+        <v>5.600279802337729</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.0221846309630329</v>
+      </c>
+      <c r="W86">
+        <v>0.1796246832920909</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1306515368847638</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2260691288657915</v>
+      </c>
+      <c r="C87">
+        <v>-581.397788896551</v>
+      </c>
+      <c r="D87">
+        <v>384.4612611034489</v>
+      </c>
+      <c r="E87">
+        <v>965.4840499999999</v>
+      </c>
+      <c r="F87">
+        <v>966.2570499999999</v>
+      </c>
+      <c r="G87">
+        <v>0.398</v>
+      </c>
+      <c r="H87">
+        <v>1136</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>23.1</v>
+      </c>
+      <c r="K87">
+        <v>0.182</v>
+      </c>
+      <c r="L87">
+        <v>22.918</v>
+      </c>
+      <c r="M87">
+        <v>177.501420085</v>
+      </c>
+      <c r="N87">
+        <v>-154.583420085</v>
+      </c>
+      <c r="O87">
+        <v>-26.248264730433</v>
+      </c>
+      <c r="P87">
+        <v>-128.335155354567</v>
+      </c>
+      <c r="Q87">
+        <v>-128.153155354567</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.4889826326695676</v>
+      </c>
+      <c r="T87">
+        <v>5.973631789160245</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.02192363530464428</v>
+      </c>
+      <c r="W87">
+        <v>0.1796726281945369</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.1291144599802372</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2278131288657915</v>
+      </c>
+      <c r="C88">
+        <v>-595.8339864199654</v>
+      </c>
+      <c r="D88">
+        <v>381.3927935800344</v>
+      </c>
+      <c r="E88">
+        <v>976.8517799999998</v>
+      </c>
+      <c r="F88">
+        <v>977.6247799999999</v>
+      </c>
+      <c r="G88">
+        <v>0.398</v>
+      </c>
+      <c r="H88">
+        <v>1136</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>23.1</v>
+      </c>
+      <c r="K88">
+        <v>0.182</v>
+      </c>
+      <c r="L88">
+        <v>22.918</v>
+      </c>
+      <c r="M88">
+        <v>179.589672086</v>
+      </c>
+      <c r="N88">
+        <v>-156.671672086</v>
+      </c>
+      <c r="O88">
+        <v>-26.6028499202028</v>
+      </c>
+      <c r="P88">
+        <v>-130.0688221657972</v>
+      </c>
+      <c r="Q88">
+        <v>-129.8868221657972</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.523245677860251</v>
+      </c>
+      <c r="T88">
+        <v>6.400319774100263</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.02166870931272981</v>
+      </c>
+      <c r="W88">
+        <v>0.1797194580992516</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.1276131290502345</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2295571288657915</v>
+      </c>
+      <c r="C89">
+        <v>-610.2215915787347</v>
+      </c>
+      <c r="D89">
+        <v>378.3729184212653</v>
+      </c>
+      <c r="E89">
+        <v>988.2195099999999</v>
+      </c>
+      <c r="F89">
+        <v>988.9925099999999</v>
+      </c>
+      <c r="G89">
+        <v>0.398</v>
+      </c>
+      <c r="H89">
+        <v>1136</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>23.1</v>
+      </c>
+      <c r="K89">
+        <v>0.182</v>
+      </c>
+      <c r="L89">
+        <v>22.918</v>
+      </c>
+      <c r="M89">
+        <v>181.677924087</v>
+      </c>
+      <c r="N89">
+        <v>-158.759924087</v>
+      </c>
+      <c r="O89">
+        <v>-26.9574351099726</v>
+      </c>
+      <c r="P89">
+        <v>-131.8024889770274</v>
+      </c>
+      <c r="Q89">
+        <v>-131.6204889770274</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.5627799607725781</v>
+      </c>
+      <c r="T89">
+        <v>6.892652064415667</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.02141964368844556</v>
+      </c>
+      <c r="W89">
+        <v>0.1797652114544326</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.1261463114749444</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2313011288657915</v>
+      </c>
+      <c r="C90">
+        <v>-624.5617495708717</v>
+      </c>
+      <c r="D90">
+        <v>375.4004904291282</v>
+      </c>
+      <c r="E90">
+        <v>999.58724</v>
+      </c>
+      <c r="F90">
+        <v>1000.36024</v>
+      </c>
+      <c r="G90">
+        <v>0.398</v>
+      </c>
+      <c r="H90">
+        <v>1136</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>23.1</v>
+      </c>
+      <c r="K90">
+        <v>0.182</v>
+      </c>
+      <c r="L90">
+        <v>22.918</v>
+      </c>
+      <c r="M90">
+        <v>183.766176088</v>
+      </c>
+      <c r="N90">
+        <v>-160.848176088</v>
+      </c>
+      <c r="O90">
+        <v>-27.3120202997424</v>
+      </c>
+      <c r="P90">
+        <v>-133.5361557882576</v>
+      </c>
+      <c r="Q90">
+        <v>-133.3541557882576</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.6089032908369596</v>
+      </c>
+      <c r="T90">
+        <v>7.467039736450307</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.0211762386465314</v>
+      </c>
+      <c r="W90">
+        <v>0.1798099249606322</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.1247128306627291</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2330451288657915</v>
+      </c>
+      <c r="C91">
+        <v>-638.8555698890259</v>
+      </c>
+      <c r="D91">
+        <v>372.474400110974</v>
+      </c>
+      <c r="E91">
+        <v>1010.95497</v>
+      </c>
+      <c r="F91">
+        <v>1011.72797</v>
+      </c>
+      <c r="G91">
+        <v>0.398</v>
+      </c>
+      <c r="H91">
+        <v>1136</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>23.1</v>
+      </c>
+      <c r="K91">
+        <v>0.182</v>
+      </c>
+      <c r="L91">
+        <v>22.918</v>
+      </c>
+      <c r="M91">
+        <v>185.854428089</v>
+      </c>
+      <c r="N91">
+        <v>-162.936428089</v>
+      </c>
+      <c r="O91">
+        <v>-27.6666054895122</v>
+      </c>
+      <c r="P91">
+        <v>-135.2698225994878</v>
+      </c>
+      <c r="Q91">
+        <v>-135.0878225994878</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.6634126809130468</v>
+      </c>
+      <c r="T91">
+        <v>8.145861530673063</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.02093830338084004</v>
+      </c>
+      <c r="W91">
+        <v>0.1798536336689397</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.1233115629024738</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2347891288657915</v>
+      </c>
+      <c r="C92">
+        <v>-653.1041277012624</v>
+      </c>
+      <c r="D92">
+        <v>369.5935722987375</v>
+      </c>
+      <c r="E92">
+        <v>1022.3227</v>
+      </c>
+      <c r="F92">
+        <v>1023.0957</v>
+      </c>
+      <c r="G92">
+        <v>0.398</v>
+      </c>
+      <c r="H92">
+        <v>1136</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>23.1</v>
+      </c>
+      <c r="K92">
+        <v>0.182</v>
+      </c>
+      <c r="L92">
+        <v>22.918</v>
+      </c>
+      <c r="M92">
+        <v>187.94268009</v>
+      </c>
+      <c r="N92">
+        <v>-165.02468009</v>
+      </c>
+      <c r="O92">
+        <v>-28.021190679282</v>
+      </c>
+      <c r="P92">
+        <v>-137.003489410718</v>
+      </c>
+      <c r="Q92">
+        <v>-136.821489410718</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.7288239490043517</v>
+      </c>
+      <c r="T92">
+        <v>8.960447683740369</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.02070565556549737</v>
+      </c>
+      <c r="W92">
+        <v>0.1798963710726181</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.1219414344257796</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2365331288657915</v>
+      </c>
+      <c r="C93">
+        <v>-667.3084651682559</v>
+      </c>
+      <c r="D93">
+        <v>366.756964831744</v>
+      </c>
+      <c r="E93">
+        <v>1033.69043</v>
+      </c>
+      <c r="F93">
+        <v>1034.46343</v>
+      </c>
+      <c r="G93">
+        <v>0.398</v>
+      </c>
+      <c r="H93">
+        <v>1136</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>23.1</v>
+      </c>
+      <c r="K93">
+        <v>0.182</v>
+      </c>
+      <c r="L93">
+        <v>22.918</v>
+      </c>
+      <c r="M93">
+        <v>190.030932091</v>
+      </c>
+      <c r="N93">
+        <v>-167.112932091</v>
+      </c>
+      <c r="O93">
+        <v>-28.3757758690518</v>
+      </c>
+      <c r="P93">
+        <v>-138.7371562219482</v>
+      </c>
+      <c r="Q93">
+        <v>-138.5551562219482</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.8087710544492797</v>
+      </c>
+      <c r="T93">
+        <v>9.956052981933745</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.02047812088895344</v>
+      </c>
+      <c r="W93">
+        <v>0.1799381691926993</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1206014186628589</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2382771288657914</v>
+      </c>
+      <c r="C94">
+        <v>-681.4695927002927</v>
+      </c>
+      <c r="D94">
+        <v>363.9635672997073</v>
+      </c>
+      <c r="E94">
+        <v>1045.05816</v>
+      </c>
+      <c r="F94">
+        <v>1045.83116</v>
+      </c>
+      <c r="G94">
+        <v>0.398</v>
+      </c>
+      <c r="H94">
+        <v>1136</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>23.1</v>
+      </c>
+      <c r="K94">
+        <v>0.182</v>
+      </c>
+      <c r="L94">
+        <v>22.918</v>
+      </c>
+      <c r="M94">
+        <v>192.119184092</v>
+      </c>
+      <c r="N94">
+        <v>-169.201184092</v>
+      </c>
+      <c r="O94">
+        <v>-28.7303610588216</v>
+      </c>
+      <c r="P94">
+        <v>-140.4708230331784</v>
+      </c>
+      <c r="Q94">
+        <v>-140.2888230331784</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.9087049362554399</v>
+      </c>
+      <c r="T94">
+        <v>11.20055960467547</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.02025553261842134</v>
+      </c>
+      <c r="W94">
+        <v>0.179979058657996</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1192905336773931</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2400211288657915</v>
+      </c>
+      <c r="C95">
+        <v>-695.5884901572614</v>
+      </c>
+      <c r="D95">
+        <v>361.2123998427385</v>
+      </c>
+      <c r="E95">
+        <v>1056.42589</v>
+      </c>
+      <c r="F95">
+        <v>1057.19889</v>
+      </c>
+      <c r="G95">
+        <v>0.398</v>
+      </c>
+      <c r="H95">
+        <v>1136</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>23.1</v>
+      </c>
+      <c r="K95">
+        <v>0.182</v>
+      </c>
+      <c r="L95">
+        <v>22.918</v>
+      </c>
+      <c r="M95">
+        <v>194.207436093</v>
+      </c>
+      <c r="N95">
+        <v>-171.289436093</v>
+      </c>
+      <c r="O95">
+        <v>-29.0849462485914</v>
+      </c>
+      <c r="P95">
+        <v>-142.2044898444086</v>
+      </c>
+      <c r="Q95">
+        <v>-142.0224898444086</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.037191355720503</v>
+      </c>
+      <c r="T95">
+        <v>12.80063954820054</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.02003773119241681</v>
+      </c>
+      <c r="W95">
+        <v>0.180019068779953</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1180078397668834</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2417651288657915</v>
+      </c>
+      <c r="C96">
+        <v>-709.6661079946302</v>
+      </c>
+      <c r="D96">
+        <v>358.5025120053698</v>
+      </c>
+      <c r="E96">
+        <v>1067.79362</v>
+      </c>
+      <c r="F96">
+        <v>1068.56662</v>
+      </c>
+      <c r="G96">
+        <v>0.398</v>
+      </c>
+      <c r="H96">
+        <v>1136</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>23.1</v>
+      </c>
+      <c r="K96">
+        <v>0.182</v>
+      </c>
+      <c r="L96">
+        <v>22.918</v>
+      </c>
+      <c r="M96">
+        <v>196.295688094</v>
+      </c>
+      <c r="N96">
+        <v>-173.377688094</v>
+      </c>
+      <c r="O96">
+        <v>-29.4395314383612</v>
+      </c>
+      <c r="P96">
+        <v>-143.9381566556388</v>
+      </c>
+      <c r="Q96">
+        <v>-143.7561566556388</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.20850658167392</v>
+      </c>
+      <c r="T96">
+        <v>14.93407947290063</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.01982456383930599</v>
+      </c>
+      <c r="W96">
+        <v>0.1800582276227195</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.1167524372161719</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2435091288657915</v>
+      </c>
+      <c r="C97">
+        <v>-723.7033683582209</v>
+      </c>
+      <c r="D97">
+        <v>355.832981641779</v>
+      </c>
+      <c r="E97">
+        <v>1079.16135</v>
+      </c>
+      <c r="F97">
+        <v>1079.93435</v>
+      </c>
+      <c r="G97">
+        <v>0.398</v>
+      </c>
+      <c r="H97">
+        <v>1136</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>23.1</v>
+      </c>
+      <c r="K97">
+        <v>0.182</v>
+      </c>
+      <c r="L97">
+        <v>22.918</v>
+      </c>
+      <c r="M97">
+        <v>198.383940095</v>
+      </c>
+      <c r="N97">
+        <v>-175.465940095</v>
+      </c>
+      <c r="O97">
+        <v>-29.794116628131</v>
+      </c>
+      <c r="P97">
+        <v>-145.671823466869</v>
+      </c>
+      <c r="Q97">
+        <v>-145.489823466869</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.448347898008705</v>
+      </c>
+      <c r="T97">
+        <v>17.92089536748076</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.01961588421994488</v>
+      </c>
+      <c r="W97">
+        <v>0.1800965620687961</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1155234641928438</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2452531288657915</v>
+      </c>
+      <c r="C98">
+        <v>-737.7011661304361</v>
+      </c>
+      <c r="D98">
+        <v>353.2029138695638</v>
+      </c>
+      <c r="E98">
+        <v>1090.52908</v>
+      </c>
+      <c r="F98">
+        <v>1091.30208</v>
+      </c>
+      <c r="G98">
+        <v>0.398</v>
+      </c>
+      <c r="H98">
+        <v>1136</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>23.1</v>
+      </c>
+      <c r="K98">
+        <v>0.182</v>
+      </c>
+      <c r="L98">
+        <v>22.918</v>
+      </c>
+      <c r="M98">
+        <v>200.472192096</v>
+      </c>
+      <c r="N98">
+        <v>-177.554192096</v>
+      </c>
+      <c r="O98">
+        <v>-30.1487018179008</v>
+      </c>
+      <c r="P98">
+        <v>-147.4054902780992</v>
+      </c>
+      <c r="Q98">
+        <v>-147.2234902780992</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.808109872510877</v>
+      </c>
+      <c r="T98">
+        <v>22.4011192093509</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.01941155209265379</v>
+      </c>
+      <c r="W98">
+        <v>0.1801340978805795</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1143200947741684</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2469971288657915</v>
+      </c>
+      <c r="C99">
+        <v>-751.660369930426</v>
+      </c>
+      <c r="D99">
+        <v>350.6114400695739</v>
+      </c>
+      <c r="E99">
+        <v>1101.89681</v>
+      </c>
+      <c r="F99">
+        <v>1102.66981</v>
+      </c>
+      <c r="G99">
+        <v>0.398</v>
+      </c>
+      <c r="H99">
+        <v>1136</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>23.1</v>
+      </c>
+      <c r="K99">
+        <v>0.182</v>
+      </c>
+      <c r="L99">
+        <v>22.918</v>
+      </c>
+      <c r="M99">
+        <v>202.560444097</v>
+      </c>
+      <c r="N99">
+        <v>-179.642444097</v>
+      </c>
+      <c r="O99">
+        <v>-30.5032870076706</v>
+      </c>
+      <c r="P99">
+        <v>-149.1391570893294</v>
+      </c>
+      <c r="Q99">
+        <v>-148.9571570893294</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.407713163347836</v>
+      </c>
+      <c r="T99">
+        <v>29.8681589458012</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.01921143299891509</v>
+      </c>
+      <c r="W99">
+        <v>0.1801708597580993</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.1131415370960842</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2487411288657915</v>
+      </c>
+      <c r="C100">
+        <v>-765.5818230705473</v>
+      </c>
+      <c r="D100">
+        <v>348.0577169294525</v>
+      </c>
+      <c r="E100">
+        <v>1113.26454</v>
+      </c>
+      <c r="F100">
+        <v>1114.03754</v>
+      </c>
+      <c r="G100">
+        <v>0.398</v>
+      </c>
+      <c r="H100">
+        <v>1136</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>23.1</v>
+      </c>
+      <c r="K100">
+        <v>0.182</v>
+      </c>
+      <c r="L100">
+        <v>22.918</v>
+      </c>
+      <c r="M100">
+        <v>204.648696098</v>
+      </c>
+      <c r="N100">
+        <v>-181.730696098</v>
+      </c>
+      <c r="O100">
+        <v>-30.85787219744039</v>
+      </c>
+      <c r="P100">
+        <v>-150.8728239005596</v>
+      </c>
+      <c r="Q100">
+        <v>-150.6908239005596</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>3.606919745021755</v>
+      </c>
+      <c r="T100">
+        <v>44.8022384187018</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.01901539796831392</v>
+      </c>
+      <c r="W100">
+        <v>0.1802068713932208</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.1119870316155119</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2504851288657914</v>
+      </c>
+      <c r="C101">
+        <v>-779.4663444713253</v>
+      </c>
+      <c r="D101">
+        <v>345.5409255286747</v>
+      </c>
+      <c r="E101">
+        <v>1124.63227</v>
+      </c>
+      <c r="F101">
+        <v>1125.40527</v>
+      </c>
+      <c r="G101">
+        <v>0.398</v>
+      </c>
+      <c r="H101">
+        <v>1136</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>23.1</v>
+      </c>
+      <c r="K101">
+        <v>0.182</v>
+      </c>
+      <c r="L101">
+        <v>22.918</v>
+      </c>
+      <c r="M101">
+        <v>206.736948099</v>
+      </c>
+      <c r="N101">
+        <v>-183.818948099</v>
+      </c>
+      <c r="O101">
+        <v>-31.2124573872102</v>
+      </c>
+      <c r="P101">
+        <v>-152.6064907117898</v>
+      </c>
+      <c r="Q101">
+        <v>-152.4244907117898</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>7.204539490043508</v>
+      </c>
+      <c r="T101">
+        <v>89.6044768374036</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.01882332324136125</v>
+      </c>
+      <c r="W101">
+        <v>0.1802421555205619</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.1108558494779814</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
